--- a/Fisica A/Fisica calculos.xlsx
+++ b/Fisica A/Fisica calculos.xlsx
@@ -1,27 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20396"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20396"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Diretórios\Zaldef\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Diretórios\Zaldef\Fisica A\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9075F0C0-33BA-454B-AABD-185ACFCCCB77}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AC2FB570-99FB-4A38-9348-CAE966B61428}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" activeTab="6" xr2:uid="{2C1F22F9-8DA6-4F27-8223-5F8B928661FB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" firstSheet="1" activeTab="8" xr2:uid="{2C1F22F9-8DA6-4F27-8223-5F8B928661FB}"/>
   </bookViews>
   <sheets>
     <sheet name="Leis de N" sheetId="1" r:id="rId1"/>
     <sheet name="Planilha1" sheetId="4" r:id="rId2"/>
     <sheet name="Queda Livre" sheetId="3" r:id="rId3"/>
-    <sheet name="teste 1" sheetId="2" r:id="rId4"/>
-    <sheet name="Planilha3" sheetId="5" r:id="rId5"/>
-    <sheet name="Planilha4" sheetId="6" r:id="rId6"/>
+    <sheet name="Planilha3" sheetId="5" r:id="rId4"/>
+    <sheet name="Planilha4" sheetId="6" r:id="rId5"/>
+    <sheet name="teste 1" sheetId="2" r:id="rId6"/>
     <sheet name="teste 2" sheetId="7" r:id="rId7"/>
+    <sheet name="Teste 3" sheetId="8" r:id="rId8"/>
+    <sheet name="At 6" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="282">
   <si>
     <t>MRU/Repouso = Fres = 0</t>
   </si>
@@ -1478,6 +1481,200 @@
   <si>
     <t>m.g</t>
   </si>
+  <si>
+    <t>GRAVIDADE</t>
+  </si>
+  <si>
+    <t>Exerciceo 1</t>
+  </si>
+  <si>
+    <t>Exerciceo 2</t>
+  </si>
+  <si>
+    <t>Exerciceo 3</t>
+  </si>
+  <si>
+    <t>Exerciceo 4</t>
+  </si>
+  <si>
+    <t>Exerciceo 5</t>
+  </si>
+  <si>
+    <t>Entrada</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Massa </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Graus </t>
+  </si>
+  <si>
+    <t>Comprimento</t>
+  </si>
+  <si>
+    <t>Compressão</t>
+  </si>
+  <si>
+    <t>Vi</t>
+  </si>
+  <si>
+    <t>h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tempo </t>
+  </si>
+  <si>
+    <t>Graus</t>
+  </si>
+  <si>
+    <t>µ</t>
+  </si>
+  <si>
+    <t>Mecanica Inical</t>
+  </si>
+  <si>
+    <t>Mecanica Inical (kJ)</t>
+  </si>
+  <si>
+    <t>Deslocamento</t>
+  </si>
+  <si>
+    <t>m1gh</t>
+  </si>
+  <si>
+    <t>-(mviˆ2)/2</t>
+  </si>
+  <si>
+    <t>kxˆ2/2</t>
+  </si>
+  <si>
+    <t>Mecanica Final</t>
+  </si>
+  <si>
+    <t>Mecanica Final (kJ)</t>
+  </si>
+  <si>
+    <t>mgh</t>
+  </si>
+  <si>
+    <t>(m1vfˆ2)/2</t>
+  </si>
+  <si>
+    <t>-µmgd</t>
+  </si>
+  <si>
+    <t>-mgsen(θ)D</t>
+  </si>
+  <si>
+    <t>(m2vfˆ2)/2</t>
+  </si>
+  <si>
+    <t>Saida</t>
+  </si>
+  <si>
+    <t>-µmgcos(θ)D</t>
+  </si>
+  <si>
+    <t>m1gh/2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">k </t>
+  </si>
+  <si>
+    <t>m2gh/2</t>
+  </si>
+  <si>
+    <t>Deslocameno</t>
+  </si>
+  <si>
+    <t>Coeficiente de atrito</t>
+  </si>
+  <si>
+    <t>vf</t>
+  </si>
+  <si>
+    <t>Distancia</t>
+  </si>
+  <si>
+    <t>Altura Limite (cm)</t>
+  </si>
+  <si>
+    <t>Deslocamento do dado (cm)</t>
+  </si>
+  <si>
+    <t>Massa do dado (g)</t>
+  </si>
+  <si>
+    <t>Média</t>
+  </si>
+  <si>
+    <t>Lado de madeira</t>
+  </si>
+  <si>
+    <t>θ[Medido]</t>
+  </si>
+  <si>
+    <t>h[Medido</t>
+  </si>
+  <si>
+    <t>h[Calculado]</t>
+  </si>
+  <si>
+    <r>
+      <t>µ</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>est</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>[θ - Medido]</t>
+    </r>
+  </si>
+  <si>
+    <t>θ[Calculado]</t>
+  </si>
+  <si>
+    <r>
+      <t>µ</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>est</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>[θ - Calculado]</t>
+    </r>
+  </si>
+  <si>
+    <t>Lado com fita</t>
+  </si>
 </sst>
 </file>
 
@@ -1485,9 +1682,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
-    <numFmt numFmtId="167" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1567,8 +1764,30 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="17">
+  <fills count="19">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1665,8 +1884,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.89999084444715716"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="60">
+  <borders count="64">
     <border>
       <left/>
       <right/>
@@ -2391,11 +2622,59 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="194">
+  <cellXfs count="277">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2629,145 +2908,298 @@
     <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="3" fillId="2" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="42" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="43" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="41" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="52" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="42" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="3" fillId="2" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="3" fillId="2" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="55" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="42" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="48" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="51" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="58" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="45" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="7" fillId="11" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="11" borderId="47" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="60" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1"/>
+    <xf numFmtId="1" fontId="3" fillId="2" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="62" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="51" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="52" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -7151,11 +7583,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="143" t="s">
+      <c r="A1" s="210" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="143"/>
-      <c r="C1" s="143"/>
+      <c r="B1" s="210"/>
+      <c r="C1" s="210"/>
       <c r="H1" s="3" t="s">
         <v>19</v>
       </c>
@@ -7167,14 +7599,14 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="143" t="s">
+      <c r="A2" s="210" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="143"/>
-      <c r="C2" s="143"/>
-      <c r="D2" s="143"/>
-      <c r="E2" s="143"/>
-      <c r="F2" s="143"/>
+      <c r="B2" s="210"/>
+      <c r="C2" s="210"/>
+      <c r="D2" s="210"/>
+      <c r="E2" s="210"/>
+      <c r="F2" s="210"/>
       <c r="G2" s="1"/>
       <c r="H2" s="3" t="s">
         <v>21</v>
@@ -7198,11 +7630,11 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B4" s="144" t="s">
+      <c r="B4" s="211" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="145"/>
-      <c r="D4" s="146"/>
+      <c r="C4" s="212"/>
+      <c r="D4" s="213"/>
       <c r="H4" s="8" t="s">
         <v>5</v>
       </c>
@@ -7316,16 +7748,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="147" t="s">
+      <c r="A1" s="214" t="s">
         <v>118</v>
       </c>
-      <c r="B1" s="148"/>
-      <c r="C1" s="149"/>
-      <c r="D1" s="147" t="s">
+      <c r="B1" s="215"/>
+      <c r="C1" s="216"/>
+      <c r="D1" s="214" t="s">
         <v>133</v>
       </c>
-      <c r="E1" s="148"/>
-      <c r="F1" s="149"/>
+      <c r="E1" s="215"/>
+      <c r="F1" s="216"/>
       <c r="H1" s="83"/>
       <c r="I1" s="82" t="s">
         <v>145</v>
@@ -7409,11 +7841,11 @@
       <c r="C4" s="72" t="s">
         <v>166</v>
       </c>
-      <c r="D4" s="147" t="s">
+      <c r="D4" s="214" t="s">
         <v>159</v>
       </c>
-      <c r="E4" s="148"/>
-      <c r="F4" s="149"/>
+      <c r="E4" s="215"/>
+      <c r="F4" s="216"/>
       <c r="H4" s="78">
         <v>-4</v>
       </c>
@@ -7593,11 +8025,11 @@
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="147" t="s">
+      <c r="A11" s="214" t="s">
         <v>164</v>
       </c>
-      <c r="B11" s="148"/>
-      <c r="C11" s="149"/>
+      <c r="B11" s="215"/>
+      <c r="C11" s="216"/>
       <c r="F11" s="87" t="s">
         <v>163</v>
       </c>
@@ -7689,11 +8121,11 @@
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="147" t="s">
+      <c r="A16" s="214" t="s">
         <v>160</v>
       </c>
-      <c r="B16" s="148"/>
-      <c r="C16" s="149"/>
+      <c r="B16" s="215"/>
+      <c r="C16" s="216"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="69" t="s">
@@ -7768,30 +8200,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="153" t="s">
+      <c r="A1" s="220" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="153"/>
-      <c r="C1" s="153"/>
-      <c r="D1" s="153"/>
-      <c r="G1" s="150" t="s">
+      <c r="B1" s="220"/>
+      <c r="C1" s="220"/>
+      <c r="D1" s="220"/>
+      <c r="G1" s="217" t="s">
         <v>63</v>
       </c>
-      <c r="H1" s="151"/>
-      <c r="I1" s="152"/>
-      <c r="J1" s="150" t="s">
+      <c r="H1" s="218"/>
+      <c r="I1" s="219"/>
+      <c r="J1" s="217" t="s">
         <v>76</v>
       </c>
-      <c r="K1" s="151"/>
-      <c r="L1" s="152"/>
+      <c r="K1" s="218"/>
+      <c r="L1" s="219"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="155" t="s">
+      <c r="A2" s="222" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="155"/>
-      <c r="C2" s="155"/>
-      <c r="D2" s="155"/>
+      <c r="B2" s="222"/>
+      <c r="C2" s="222"/>
+      <c r="D2" s="222"/>
       <c r="G2" s="41"/>
       <c r="H2" s="30"/>
       <c r="I2" s="42"/>
@@ -7865,10 +8297,10 @@
       <c r="A5" t="s">
         <v>50</v>
       </c>
-      <c r="B5" s="154" t="s">
+      <c r="B5" s="221" t="s">
         <v>55</v>
       </c>
-      <c r="C5" s="154"/>
+      <c r="C5" s="221"/>
       <c r="D5" t="s">
         <v>57</v>
       </c>
@@ -7946,12 +8378,12 @@
       </c>
     </row>
     <row r="8" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="156" t="s">
+      <c r="A8" s="223" t="s">
         <v>77</v>
       </c>
-      <c r="B8" s="156"/>
-      <c r="C8" s="156"/>
-      <c r="D8" s="156"/>
+      <c r="B8" s="223"/>
+      <c r="C8" s="223"/>
+      <c r="D8" s="223"/>
       <c r="G8" s="35" t="s">
         <v>61</v>
       </c>
@@ -8000,11 +8432,11 @@
       <c r="B10" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="G10" s="150" t="s">
+      <c r="G10" s="217" t="s">
         <v>71</v>
       </c>
-      <c r="H10" s="151"/>
-      <c r="I10" s="152"/>
+      <c r="H10" s="218"/>
+      <c r="I10" s="219"/>
       <c r="J10" s="26" t="s">
         <v>80</v>
       </c>
@@ -8126,11 +8558,877 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97C9B223-0321-498F-912E-09BE35F41D6D}">
+  <dimension ref="A1:D9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C3:D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <f>3*A2 ^2 -2*A2 ^3</f>
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <f>6*A2-6*A2 ^2</f>
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <f>6-12*A2</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <f t="shared" ref="B3:B9" si="0">3*A3 ^2 -2*A3 ^3</f>
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <f t="shared" ref="C3:C9" si="1">6*A3-6*A3 ^2</f>
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D9" si="2">6-12*A3</f>
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <f t="shared" si="0"/>
+        <v>-4</v>
+      </c>
+      <c r="C4">
+        <f t="shared" si="1"/>
+        <v>-12</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="2"/>
+        <v>-18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <f t="shared" si="0"/>
+        <v>-27</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="1"/>
+        <v>-36</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="2"/>
+        <v>-30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <f t="shared" si="0"/>
+        <v>-80</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="1"/>
+        <v>-72</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="2"/>
+        <v>-42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <f t="shared" si="0"/>
+        <v>-175</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="1"/>
+        <v>-120</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="2"/>
+        <v>-54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <f t="shared" si="0"/>
+        <v>-324</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="1"/>
+        <v>-180</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="2"/>
+        <v>-66</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <f t="shared" si="0"/>
+        <v>-539</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="1"/>
+        <v>-252</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="2"/>
+        <v>-78</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9CAD83A-DA60-4E85-99F1-7ED826F0099D}">
+  <dimension ref="A1:R14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="92" t="s">
+        <v>169</v>
+      </c>
+      <c r="B1" s="93" t="s">
+        <v>170</v>
+      </c>
+      <c r="C1" s="93" t="s">
+        <v>171</v>
+      </c>
+      <c r="D1" s="93" t="s">
+        <v>172</v>
+      </c>
+      <c r="E1" s="93" t="s">
+        <v>173</v>
+      </c>
+      <c r="F1" s="93" t="s">
+        <v>174</v>
+      </c>
+      <c r="G1" s="93" t="s">
+        <v>175</v>
+      </c>
+      <c r="H1" s="94" t="s">
+        <v>176</v>
+      </c>
+      <c r="J1" s="102" t="s">
+        <v>180</v>
+      </c>
+      <c r="K1" s="103">
+        <v>6.6</v>
+      </c>
+      <c r="L1" s="104"/>
+      <c r="M1" s="104"/>
+      <c r="N1" s="104"/>
+      <c r="O1" s="104"/>
+      <c r="P1" s="104"/>
+      <c r="Q1" s="104"/>
+      <c r="R1" s="104"/>
+    </row>
+    <row r="2" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A2" s="95">
+        <v>23.04</v>
+      </c>
+      <c r="B2" s="96">
+        <f>A2*0.001</f>
+        <v>2.3039999999999998E-2</v>
+      </c>
+      <c r="C2" s="96">
+        <f>B2*9.8</f>
+        <v>0.22579199999999999</v>
+      </c>
+      <c r="D2" s="96">
+        <f>B2*9.8</f>
+        <v>0.22579199999999999</v>
+      </c>
+      <c r="E2" s="96">
+        <v>11</v>
+      </c>
+      <c r="F2" s="96">
+        <f>(E2-10)*0.01</f>
+        <v>0.01</v>
+      </c>
+      <c r="G2" s="97">
+        <f>D2/F2</f>
+        <v>22.5792</v>
+      </c>
+      <c r="H2" s="98">
+        <f>G2-0</f>
+        <v>22.5792</v>
+      </c>
+      <c r="J2" s="105" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2" s="106">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="L2" s="104"/>
+      <c r="M2" s="104"/>
+      <c r="N2" s="104"/>
+      <c r="O2" s="104"/>
+      <c r="P2" s="104"/>
+      <c r="Q2" s="104"/>
+      <c r="R2" s="104"/>
+    </row>
+    <row r="3" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="95">
+        <v>28.23</v>
+      </c>
+      <c r="B3" s="96">
+        <f t="shared" ref="B3:B11" si="0">A3*0.001</f>
+        <v>2.8230000000000002E-2</v>
+      </c>
+      <c r="C3" s="96">
+        <f t="shared" ref="C3:C11" si="1">B3*9.8</f>
+        <v>0.27665400000000001</v>
+      </c>
+      <c r="D3" s="96">
+        <f t="shared" ref="D3:D11" si="2">B3*9.8</f>
+        <v>0.27665400000000001</v>
+      </c>
+      <c r="E3" s="96">
+        <v>11.3</v>
+      </c>
+      <c r="F3" s="96">
+        <f t="shared" ref="F3:F11" si="3">(E3-10)*0.01</f>
+        <v>1.3000000000000008E-2</v>
+      </c>
+      <c r="G3" s="97">
+        <f t="shared" ref="G3:G11" si="4">D3/F3</f>
+        <v>21.28107692307691</v>
+      </c>
+      <c r="H3" s="98">
+        <f>G3-G2</f>
+        <v>-1.2981230769230905</v>
+      </c>
+      <c r="J3" s="107" t="s">
+        <v>169</v>
+      </c>
+      <c r="K3" s="108" t="s">
+        <v>170</v>
+      </c>
+      <c r="L3" s="108" t="s">
+        <v>181</v>
+      </c>
+      <c r="M3" s="108" t="s">
+        <v>182</v>
+      </c>
+      <c r="N3" s="108" t="s">
+        <v>183</v>
+      </c>
+      <c r="O3" s="109" t="s">
+        <v>184</v>
+      </c>
+      <c r="P3" s="104"/>
+      <c r="Q3" s="104" t="s">
+        <v>185</v>
+      </c>
+      <c r="R3" s="104"/>
+    </row>
+    <row r="4" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A4" s="95">
+        <v>38.130000000000003</v>
+      </c>
+      <c r="B4" s="96">
+        <f t="shared" si="0"/>
+        <v>3.8130000000000004E-2</v>
+      </c>
+      <c r="C4" s="96">
+        <f t="shared" si="1"/>
+        <v>0.37367400000000006</v>
+      </c>
+      <c r="D4" s="96">
+        <f t="shared" si="2"/>
+        <v>0.37367400000000006</v>
+      </c>
+      <c r="E4" s="96">
+        <v>11.9</v>
+      </c>
+      <c r="F4" s="96">
+        <f t="shared" si="3"/>
+        <v>1.9000000000000003E-2</v>
+      </c>
+      <c r="G4" s="97">
+        <f t="shared" si="4"/>
+        <v>19.667052631578947</v>
+      </c>
+      <c r="H4" s="98">
+        <f t="shared" ref="H4:H11" si="5">G4-G3</f>
+        <v>-1.6140242914979623</v>
+      </c>
+      <c r="J4" s="110">
+        <v>10</v>
+      </c>
+      <c r="K4" s="111">
+        <f t="shared" ref="K4:K9" si="6">J4*0.001</f>
+        <v>0.01</v>
+      </c>
+      <c r="L4" s="111">
+        <f>7-K1</f>
+        <v>0.40000000000000036</v>
+      </c>
+      <c r="M4" s="111">
+        <f t="shared" ref="M4:M9" si="7">L4*0.01</f>
+        <v>4.0000000000000036E-3</v>
+      </c>
+      <c r="N4" s="111">
+        <f>K4*K2</f>
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="O4" s="112">
+        <f t="shared" ref="O4:O9" si="8">N4/M4</f>
+        <v>24.499999999999979</v>
+      </c>
+      <c r="P4" s="111"/>
+      <c r="Q4" s="111">
+        <f>(44.48+M11+M12)*M4-0.109</f>
+        <v>0.10381715972683055</v>
+      </c>
+      <c r="R4" s="111">
+        <f>Q4+M12</f>
+        <v>2.6329709135421737</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A5" s="95">
+        <v>68.069999999999993</v>
+      </c>
+      <c r="B5" s="96">
+        <f t="shared" si="0"/>
+        <v>6.8069999999999992E-2</v>
+      </c>
+      <c r="C5" s="96">
+        <f t="shared" si="1"/>
+        <v>0.66708599999999996</v>
+      </c>
+      <c r="D5" s="96">
+        <f t="shared" si="2"/>
+        <v>0.66708599999999996</v>
+      </c>
+      <c r="E5" s="96">
+        <v>13.6</v>
+      </c>
+      <c r="F5" s="96">
+        <f t="shared" si="3"/>
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="G5" s="97">
+        <f t="shared" si="4"/>
+        <v>18.530166666666666</v>
+      </c>
+      <c r="H5" s="98">
+        <f t="shared" si="5"/>
+        <v>-1.1368859649122811</v>
+      </c>
+      <c r="J5" s="113">
+        <v>32.04</v>
+      </c>
+      <c r="K5" s="114">
+        <f t="shared" si="6"/>
+        <v>3.2039999999999999E-2</v>
+      </c>
+      <c r="L5" s="114">
+        <f>7.6-K1</f>
+        <v>1</v>
+      </c>
+      <c r="M5" s="114">
+        <f t="shared" si="7"/>
+        <v>0.01</v>
+      </c>
+      <c r="N5" s="114">
+        <f>K5*K2</f>
+        <v>0.31399199999999999</v>
+      </c>
+      <c r="O5" s="115">
+        <f t="shared" si="8"/>
+        <v>31.3992</v>
+      </c>
+      <c r="P5" s="114"/>
+      <c r="Q5" s="111">
+        <f>(44.48+M11+M12)</f>
+        <v>53.204289931707592</v>
+      </c>
+      <c r="R5" s="111">
+        <f>Q5+M12</f>
+        <v>55.733443685522936</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A6" s="95">
+        <v>69.13</v>
+      </c>
+      <c r="B6" s="96">
+        <f t="shared" si="0"/>
+        <v>6.9129999999999997E-2</v>
+      </c>
+      <c r="C6" s="96">
+        <f t="shared" si="1"/>
+        <v>0.67747400000000002</v>
+      </c>
+      <c r="D6" s="96">
+        <f t="shared" si="2"/>
+        <v>0.67747400000000002</v>
+      </c>
+      <c r="E6" s="96">
+        <v>13.7</v>
+      </c>
+      <c r="F6" s="96">
+        <f t="shared" si="3"/>
+        <v>3.6999999999999991E-2</v>
+      </c>
+      <c r="G6" s="97">
+        <f t="shared" si="4"/>
+        <v>18.310108108108114</v>
+      </c>
+      <c r="H6" s="98">
+        <f t="shared" si="5"/>
+        <v>-0.22005855855855216</v>
+      </c>
+      <c r="J6" s="110">
+        <v>50.64</v>
+      </c>
+      <c r="K6" s="111">
+        <f t="shared" si="6"/>
+        <v>5.0640000000000004E-2</v>
+      </c>
+      <c r="L6" s="111">
+        <f>8-K1</f>
+        <v>1.4000000000000004</v>
+      </c>
+      <c r="M6" s="111">
+        <f t="shared" si="7"/>
+        <v>1.4000000000000004E-2</v>
+      </c>
+      <c r="N6" s="111">
+        <f>K6*K2</f>
+        <v>0.4962720000000001</v>
+      </c>
+      <c r="O6" s="112">
+        <f t="shared" si="8"/>
+        <v>35.448</v>
+      </c>
+      <c r="P6" s="111"/>
+      <c r="Q6" s="111">
+        <f>(44.48+M11+M12)</f>
+        <v>53.204289931707592</v>
+      </c>
+      <c r="R6" s="111">
+        <f>Q6+M12</f>
+        <v>55.733443685522936</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A7" s="95">
+        <v>78.22</v>
+      </c>
+      <c r="B7" s="96">
+        <f t="shared" si="0"/>
+        <v>7.8219999999999998E-2</v>
+      </c>
+      <c r="C7" s="96">
+        <f t="shared" si="1"/>
+        <v>0.76655600000000002</v>
+      </c>
+      <c r="D7" s="96">
+        <f t="shared" si="2"/>
+        <v>0.76655600000000002</v>
+      </c>
+      <c r="E7" s="96">
+        <v>14</v>
+      </c>
+      <c r="F7" s="96">
+        <f t="shared" si="3"/>
+        <v>0.04</v>
+      </c>
+      <c r="G7" s="97">
+        <f t="shared" si="4"/>
+        <v>19.163900000000002</v>
+      </c>
+      <c r="H7" s="98">
+        <f t="shared" si="5"/>
+        <v>0.85379189189188764</v>
+      </c>
+      <c r="J7" s="113">
+        <v>70.28</v>
+      </c>
+      <c r="K7" s="114">
+        <f t="shared" si="6"/>
+        <v>7.0280000000000009E-2</v>
+      </c>
+      <c r="L7" s="114">
+        <f>8.4-K1</f>
+        <v>1.8000000000000007</v>
+      </c>
+      <c r="M7" s="114">
+        <f t="shared" si="7"/>
+        <v>1.8000000000000009E-2</v>
+      </c>
+      <c r="N7" s="114">
+        <f>K7*K2</f>
+        <v>0.68874400000000013</v>
+      </c>
+      <c r="O7" s="115">
+        <f t="shared" si="8"/>
+        <v>38.263555555555541</v>
+      </c>
+      <c r="P7" s="114"/>
+      <c r="Q7" s="111">
+        <f>(44.48+M11+M12)</f>
+        <v>53.204289931707592</v>
+      </c>
+      <c r="R7" s="111">
+        <f>Q7+M12</f>
+        <v>55.733443685522936</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A8" s="95">
+        <v>87.72</v>
+      </c>
+      <c r="B8" s="96">
+        <f t="shared" si="0"/>
+        <v>8.7720000000000006E-2</v>
+      </c>
+      <c r="C8" s="96">
+        <f t="shared" si="1"/>
+        <v>0.85965600000000009</v>
+      </c>
+      <c r="D8" s="96">
+        <f t="shared" si="2"/>
+        <v>0.85965600000000009</v>
+      </c>
+      <c r="E8" s="96">
+        <v>14.6</v>
+      </c>
+      <c r="F8" s="96">
+        <f t="shared" si="3"/>
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="G8" s="97">
+        <f t="shared" si="4"/>
+        <v>18.688173913043482</v>
+      </c>
+      <c r="H8" s="98">
+        <f t="shared" si="5"/>
+        <v>-0.47572608695652008</v>
+      </c>
+      <c r="J8" s="110">
+        <v>90.63</v>
+      </c>
+      <c r="K8" s="111">
+        <f t="shared" si="6"/>
+        <v>9.0630000000000002E-2</v>
+      </c>
+      <c r="L8" s="111">
+        <f>8.9-K1</f>
+        <v>2.3000000000000007</v>
+      </c>
+      <c r="M8" s="111">
+        <f t="shared" si="7"/>
+        <v>2.3000000000000007E-2</v>
+      </c>
+      <c r="N8" s="111">
+        <f>K8*K2</f>
+        <v>0.88817400000000013</v>
+      </c>
+      <c r="O8" s="112">
+        <f t="shared" si="8"/>
+        <v>38.61626086956521</v>
+      </c>
+      <c r="P8" s="111"/>
+      <c r="Q8" s="111">
+        <f>(44.48+M11+M12)</f>
+        <v>53.204289931707592</v>
+      </c>
+      <c r="R8" s="111">
+        <f>Q8+M12</f>
+        <v>55.733443685522936</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A9" s="95">
+        <v>88.45</v>
+      </c>
+      <c r="B9" s="96">
+        <f t="shared" si="0"/>
+        <v>8.8450000000000001E-2</v>
+      </c>
+      <c r="C9" s="96">
+        <f t="shared" si="1"/>
+        <v>0.86681000000000008</v>
+      </c>
+      <c r="D9" s="96">
+        <f t="shared" si="2"/>
+        <v>0.86681000000000008</v>
+      </c>
+      <c r="E9" s="96">
+        <v>14.7</v>
+      </c>
+      <c r="F9" s="96">
+        <f t="shared" si="3"/>
+        <v>4.6999999999999993E-2</v>
+      </c>
+      <c r="G9" s="97">
+        <f t="shared" si="4"/>
+        <v>18.442765957446813</v>
+      </c>
+      <c r="H9" s="98">
+        <f t="shared" si="5"/>
+        <v>-0.24540795559666861</v>
+      </c>
+      <c r="J9" s="116">
+        <v>114.86</v>
+      </c>
+      <c r="K9" s="117">
+        <f t="shared" si="6"/>
+        <v>0.11486</v>
+      </c>
+      <c r="L9" s="117">
+        <f>9.3-K1</f>
+        <v>2.7000000000000011</v>
+      </c>
+      <c r="M9" s="117">
+        <f t="shared" si="7"/>
+        <v>2.700000000000001E-2</v>
+      </c>
+      <c r="N9" s="117">
+        <f>K9*K2</f>
+        <v>1.1256280000000001</v>
+      </c>
+      <c r="O9" s="118">
+        <f t="shared" si="8"/>
+        <v>41.689925925925913</v>
+      </c>
+      <c r="P9" s="114"/>
+      <c r="Q9" s="111">
+        <f>(44.48+M11+M12)</f>
+        <v>53.204289931707592</v>
+      </c>
+      <c r="R9" s="111">
+        <f>Q9+M12</f>
+        <v>55.733443685522936</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A10" s="95">
+        <v>97.8</v>
+      </c>
+      <c r="B10" s="96">
+        <f t="shared" si="0"/>
+        <v>9.7799999999999998E-2</v>
+      </c>
+      <c r="C10" s="96">
+        <f t="shared" si="1"/>
+        <v>0.95844000000000007</v>
+      </c>
+      <c r="D10" s="96">
+        <f t="shared" si="2"/>
+        <v>0.95844000000000007</v>
+      </c>
+      <c r="E10" s="96">
+        <v>15.3</v>
+      </c>
+      <c r="F10" s="96">
+        <f t="shared" si="3"/>
+        <v>5.3000000000000005E-2</v>
+      </c>
+      <c r="G10" s="97">
+        <f t="shared" si="4"/>
+        <v>18.083773584905661</v>
+      </c>
+      <c r="H10" s="98">
+        <f t="shared" si="5"/>
+        <v>-0.35899237254115235</v>
+      </c>
+      <c r="J10" s="230" t="s">
+        <v>177</v>
+      </c>
+      <c r="K10" s="231"/>
+      <c r="L10" s="232"/>
+      <c r="M10" s="104">
+        <f>AVERAGE(O4:O9)</f>
+        <v>34.986157058507771</v>
+      </c>
+      <c r="N10" s="104"/>
+      <c r="O10" s="104"/>
+      <c r="P10" s="104"/>
+      <c r="Q10" s="104"/>
+      <c r="R10" s="104"/>
+    </row>
+    <row r="11" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="95">
+        <v>98.52</v>
+      </c>
+      <c r="B11" s="96">
+        <f t="shared" si="0"/>
+        <v>9.8519999999999996E-2</v>
+      </c>
+      <c r="C11" s="96">
+        <f t="shared" si="1"/>
+        <v>0.96549600000000002</v>
+      </c>
+      <c r="D11" s="96">
+        <f t="shared" si="2"/>
+        <v>0.96549600000000002</v>
+      </c>
+      <c r="E11" s="99">
+        <v>15.4</v>
+      </c>
+      <c r="F11" s="96">
+        <f t="shared" si="3"/>
+        <v>5.4000000000000006E-2</v>
+      </c>
+      <c r="G11" s="97">
+        <f t="shared" si="4"/>
+        <v>17.879555555555555</v>
+      </c>
+      <c r="H11" s="98">
+        <f t="shared" si="5"/>
+        <v>-0.20421802935010547</v>
+      </c>
+      <c r="J11" s="233" t="s">
+        <v>178</v>
+      </c>
+      <c r="K11" s="234"/>
+      <c r="L11" s="235"/>
+      <c r="M11" s="104">
+        <f>_xlfn.STDEV.S(O4:O9)</f>
+        <v>6.1951361778922536</v>
+      </c>
+      <c r="N11" s="104"/>
+      <c r="O11" s="104"/>
+      <c r="P11" s="104"/>
+      <c r="Q11" s="104"/>
+      <c r="R11" s="104"/>
+    </row>
+    <row r="12" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A12" s="224" t="s">
+        <v>177</v>
+      </c>
+      <c r="B12" s="225"/>
+      <c r="C12" s="225"/>
+      <c r="D12" s="226"/>
+      <c r="E12" s="100">
+        <f>G12</f>
+        <v>19.262577334038216</v>
+      </c>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3">
+        <f>AVERAGE(G2:G11)</f>
+        <v>19.262577334038216</v>
+      </c>
+      <c r="H12" s="3"/>
+      <c r="J12" s="236" t="s">
+        <v>179</v>
+      </c>
+      <c r="K12" s="237"/>
+      <c r="L12" s="238"/>
+      <c r="M12" s="104">
+        <f>M11/SQRT(6)</f>
+        <v>2.529153753815343</v>
+      </c>
+      <c r="N12" s="104"/>
+      <c r="O12" s="104"/>
+      <c r="P12" s="104"/>
+      <c r="Q12" s="104"/>
+      <c r="R12" s="104"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A13" s="224" t="s">
+        <v>178</v>
+      </c>
+      <c r="B13" s="225"/>
+      <c r="C13" s="225"/>
+      <c r="D13" s="226"/>
+      <c r="E13" s="100">
+        <f>_xlfn.STDEV.S(G2:G11)</f>
+        <v>1.5273668152842281</v>
+      </c>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+    </row>
+    <row r="14" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="227" t="s">
+        <v>179</v>
+      </c>
+      <c r="B14" s="228"/>
+      <c r="C14" s="228"/>
+      <c r="D14" s="229"/>
+      <c r="E14" s="101">
+        <f>E13/SQRT(10)</f>
+        <v>0.48299579588558378</v>
+      </c>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="J12:L12"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3D5E641-1E4C-4AD3-846C-1EDC687262F8}">
   <dimension ref="B1:P12"/>
   <sheetViews>
-    <sheetView topLeftCell="B13" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15:J35"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8141,37 +9439,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="162" t="s">
+      <c r="B1" s="244" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="163"/>
-      <c r="D1" s="164"/>
-      <c r="E1" s="159" t="s">
+      <c r="C1" s="245"/>
+      <c r="D1" s="246"/>
+      <c r="E1" s="241" t="s">
         <v>48</v>
       </c>
-      <c r="F1" s="160"/>
-      <c r="G1" s="161"/>
-      <c r="H1" s="162" t="s">
+      <c r="F1" s="242"/>
+      <c r="G1" s="243"/>
+      <c r="H1" s="244" t="s">
         <v>158</v>
       </c>
-      <c r="I1" s="163"/>
-      <c r="J1" s="164"/>
-      <c r="K1" s="162" t="s">
+      <c r="I1" s="245"/>
+      <c r="J1" s="246"/>
+      <c r="K1" s="244" t="s">
         <v>47</v>
       </c>
-      <c r="L1" s="163"/>
-      <c r="M1" s="163"/>
-      <c r="N1" s="162" t="s">
+      <c r="L1" s="245"/>
+      <c r="M1" s="245"/>
+      <c r="N1" s="244" t="s">
         <v>157</v>
       </c>
-      <c r="O1" s="163"/>
-      <c r="P1" s="164"/>
+      <c r="O1" s="245"/>
+      <c r="P1" s="246"/>
     </row>
     <row r="2" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B2" s="165" t="s">
+      <c r="B2" s="247" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="166"/>
+      <c r="C2" s="248"/>
       <c r="D2" s="89">
         <v>7</v>
       </c>
@@ -8213,10 +9511,10 @@
       </c>
     </row>
     <row r="3" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B3" s="167" t="s">
+      <c r="B3" s="249" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="168"/>
+      <c r="C3" s="250"/>
       <c r="D3" s="20">
         <v>-12</v>
       </c>
@@ -8250,10 +9548,10 @@
       <c r="P3" s="47"/>
     </row>
     <row r="4" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="157" t="s">
+      <c r="B4" s="239" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="158"/>
+      <c r="C4" s="240"/>
       <c r="D4" s="21">
         <f>SQRT(POWER(D2,2)+POWER(D3,2))</f>
         <v>13.892443989449804</v>
@@ -8544,877 +9842,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97C9B223-0321-498F-912E-09BE35F41D6D}">
-  <dimension ref="A1:D9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C3:D6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B1" t="s">
-        <v>168</v>
-      </c>
-      <c r="C1" t="s">
-        <v>116</v>
-      </c>
-      <c r="D1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <f>3*A2 ^2 -2*A2 ^3</f>
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <f>6*A2-6*A2 ^2</f>
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <f>6-12*A2</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <f t="shared" ref="B3:B9" si="0">3*A3 ^2 -2*A3 ^3</f>
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <f t="shared" ref="C3:C9" si="1">6*A3-6*A3 ^2</f>
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <f t="shared" ref="D3:D9" si="2">6-12*A3</f>
-        <v>-6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <f t="shared" si="0"/>
-        <v>-4</v>
-      </c>
-      <c r="C4">
-        <f t="shared" si="1"/>
-        <v>-12</v>
-      </c>
-      <c r="D4">
-        <f t="shared" si="2"/>
-        <v>-18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <f t="shared" si="0"/>
-        <v>-27</v>
-      </c>
-      <c r="C5">
-        <f t="shared" si="1"/>
-        <v>-36</v>
-      </c>
-      <c r="D5">
-        <f t="shared" si="2"/>
-        <v>-30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <f t="shared" si="0"/>
-        <v>-80</v>
-      </c>
-      <c r="C6">
-        <f t="shared" si="1"/>
-        <v>-72</v>
-      </c>
-      <c r="D6">
-        <f t="shared" si="2"/>
-        <v>-42</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <f t="shared" si="0"/>
-        <v>-175</v>
-      </c>
-      <c r="C7">
-        <f t="shared" si="1"/>
-        <v>-120</v>
-      </c>
-      <c r="D7">
-        <f t="shared" si="2"/>
-        <v>-54</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>6</v>
-      </c>
-      <c r="B8">
-        <f t="shared" si="0"/>
-        <v>-324</v>
-      </c>
-      <c r="C8">
-        <f t="shared" si="1"/>
-        <v>-180</v>
-      </c>
-      <c r="D8">
-        <f t="shared" si="2"/>
-        <v>-66</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <f t="shared" si="0"/>
-        <v>-539</v>
-      </c>
-      <c r="C9">
-        <f t="shared" si="1"/>
-        <v>-252</v>
-      </c>
-      <c r="D9">
-        <f t="shared" si="2"/>
-        <v>-78</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9CAD83A-DA60-4E85-99F1-7ED826F0099D}">
-  <dimension ref="A1:R14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="92" t="s">
-        <v>169</v>
-      </c>
-      <c r="B1" s="93" t="s">
-        <v>170</v>
-      </c>
-      <c r="C1" s="93" t="s">
-        <v>171</v>
-      </c>
-      <c r="D1" s="93" t="s">
-        <v>172</v>
-      </c>
-      <c r="E1" s="93" t="s">
-        <v>173</v>
-      </c>
-      <c r="F1" s="93" t="s">
-        <v>174</v>
-      </c>
-      <c r="G1" s="93" t="s">
-        <v>175</v>
-      </c>
-      <c r="H1" s="94" t="s">
-        <v>176</v>
-      </c>
-      <c r="J1" s="102" t="s">
-        <v>180</v>
-      </c>
-      <c r="K1" s="103">
-        <v>6.6</v>
-      </c>
-      <c r="L1" s="104"/>
-      <c r="M1" s="104"/>
-      <c r="N1" s="104"/>
-      <c r="O1" s="104"/>
-      <c r="P1" s="104"/>
-      <c r="Q1" s="104"/>
-      <c r="R1" s="104"/>
-    </row>
-    <row r="2" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A2" s="95">
-        <v>23.04</v>
-      </c>
-      <c r="B2" s="96">
-        <f>A2*0.001</f>
-        <v>2.3039999999999998E-2</v>
-      </c>
-      <c r="C2" s="96">
-        <f>B2*9.8</f>
-        <v>0.22579199999999999</v>
-      </c>
-      <c r="D2" s="96">
-        <f>B2*9.8</f>
-        <v>0.22579199999999999</v>
-      </c>
-      <c r="E2" s="96">
-        <v>11</v>
-      </c>
-      <c r="F2" s="96">
-        <f>(E2-10)*0.01</f>
-        <v>0.01</v>
-      </c>
-      <c r="G2" s="97">
-        <f>D2/F2</f>
-        <v>22.5792</v>
-      </c>
-      <c r="H2" s="98">
-        <f>G2-0</f>
-        <v>22.5792</v>
-      </c>
-      <c r="J2" s="105" t="s">
-        <v>15</v>
-      </c>
-      <c r="K2" s="106">
-        <v>9.8000000000000007</v>
-      </c>
-      <c r="L2" s="104"/>
-      <c r="M2" s="104"/>
-      <c r="N2" s="104"/>
-      <c r="O2" s="104"/>
-      <c r="P2" s="104"/>
-      <c r="Q2" s="104"/>
-      <c r="R2" s="104"/>
-    </row>
-    <row r="3" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="95">
-        <v>28.23</v>
-      </c>
-      <c r="B3" s="96">
-        <f t="shared" ref="B3:B11" si="0">A3*0.001</f>
-        <v>2.8230000000000002E-2</v>
-      </c>
-      <c r="C3" s="96">
-        <f t="shared" ref="C3:C11" si="1">B3*9.8</f>
-        <v>0.27665400000000001</v>
-      </c>
-      <c r="D3" s="96">
-        <f t="shared" ref="D3:D11" si="2">B3*9.8</f>
-        <v>0.27665400000000001</v>
-      </c>
-      <c r="E3" s="96">
-        <v>11.3</v>
-      </c>
-      <c r="F3" s="96">
-        <f t="shared" ref="F3:F11" si="3">(E3-10)*0.01</f>
-        <v>1.3000000000000008E-2</v>
-      </c>
-      <c r="G3" s="97">
-        <f t="shared" ref="G3:G11" si="4">D3/F3</f>
-        <v>21.28107692307691</v>
-      </c>
-      <c r="H3" s="98">
-        <f>G3-G2</f>
-        <v>-1.2981230769230905</v>
-      </c>
-      <c r="J3" s="107" t="s">
-        <v>169</v>
-      </c>
-      <c r="K3" s="108" t="s">
-        <v>170</v>
-      </c>
-      <c r="L3" s="108" t="s">
-        <v>181</v>
-      </c>
-      <c r="M3" s="108" t="s">
-        <v>182</v>
-      </c>
-      <c r="N3" s="108" t="s">
-        <v>183</v>
-      </c>
-      <c r="O3" s="109" t="s">
-        <v>184</v>
-      </c>
-      <c r="P3" s="104"/>
-      <c r="Q3" s="104" t="s">
-        <v>185</v>
-      </c>
-      <c r="R3" s="104"/>
-    </row>
-    <row r="4" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="95">
-        <v>38.130000000000003</v>
-      </c>
-      <c r="B4" s="96">
-        <f t="shared" si="0"/>
-        <v>3.8130000000000004E-2</v>
-      </c>
-      <c r="C4" s="96">
-        <f t="shared" si="1"/>
-        <v>0.37367400000000006</v>
-      </c>
-      <c r="D4" s="96">
-        <f t="shared" si="2"/>
-        <v>0.37367400000000006</v>
-      </c>
-      <c r="E4" s="96">
-        <v>11.9</v>
-      </c>
-      <c r="F4" s="96">
-        <f t="shared" si="3"/>
-        <v>1.9000000000000003E-2</v>
-      </c>
-      <c r="G4" s="97">
-        <f t="shared" si="4"/>
-        <v>19.667052631578947</v>
-      </c>
-      <c r="H4" s="98">
-        <f t="shared" ref="H4:H11" si="5">G4-G3</f>
-        <v>-1.6140242914979623</v>
-      </c>
-      <c r="J4" s="110">
-        <v>10</v>
-      </c>
-      <c r="K4" s="111">
-        <f t="shared" ref="K4:K9" si="6">J4*0.001</f>
-        <v>0.01</v>
-      </c>
-      <c r="L4" s="111">
-        <f>7-K1</f>
-        <v>0.40000000000000036</v>
-      </c>
-      <c r="M4" s="111">
-        <f t="shared" ref="M4:M9" si="7">L4*0.01</f>
-        <v>4.0000000000000036E-3</v>
-      </c>
-      <c r="N4" s="111">
-        <f>K4*K2</f>
-        <v>9.8000000000000004E-2</v>
-      </c>
-      <c r="O4" s="112">
-        <f t="shared" ref="O4:O9" si="8">N4/M4</f>
-        <v>24.499999999999979</v>
-      </c>
-      <c r="P4" s="111"/>
-      <c r="Q4" s="111">
-        <f>(44.48+M11+M12)*M4-0.109</f>
-        <v>0.10381715972683055</v>
-      </c>
-      <c r="R4" s="111">
-        <f>Q4+M12</f>
-        <v>2.6329709135421737</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A5" s="95">
-        <v>68.069999999999993</v>
-      </c>
-      <c r="B5" s="96">
-        <f t="shared" si="0"/>
-        <v>6.8069999999999992E-2</v>
-      </c>
-      <c r="C5" s="96">
-        <f t="shared" si="1"/>
-        <v>0.66708599999999996</v>
-      </c>
-      <c r="D5" s="96">
-        <f t="shared" si="2"/>
-        <v>0.66708599999999996</v>
-      </c>
-      <c r="E5" s="96">
-        <v>13.6</v>
-      </c>
-      <c r="F5" s="96">
-        <f t="shared" si="3"/>
-        <v>3.5999999999999997E-2</v>
-      </c>
-      <c r="G5" s="97">
-        <f t="shared" si="4"/>
-        <v>18.530166666666666</v>
-      </c>
-      <c r="H5" s="98">
-        <f t="shared" si="5"/>
-        <v>-1.1368859649122811</v>
-      </c>
-      <c r="J5" s="113">
-        <v>32.04</v>
-      </c>
-      <c r="K5" s="114">
-        <f t="shared" si="6"/>
-        <v>3.2039999999999999E-2</v>
-      </c>
-      <c r="L5" s="114">
-        <f>7.6-K1</f>
-        <v>1</v>
-      </c>
-      <c r="M5" s="114">
-        <f t="shared" si="7"/>
-        <v>0.01</v>
-      </c>
-      <c r="N5" s="114">
-        <f>K5*K2</f>
-        <v>0.31399199999999999</v>
-      </c>
-      <c r="O5" s="115">
-        <f t="shared" si="8"/>
-        <v>31.3992</v>
-      </c>
-      <c r="P5" s="114"/>
-      <c r="Q5" s="111">
-        <f>(44.48+M11+M12)</f>
-        <v>53.204289931707592</v>
-      </c>
-      <c r="R5" s="111">
-        <f>Q5+M12</f>
-        <v>55.733443685522936</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A6" s="95">
-        <v>69.13</v>
-      </c>
-      <c r="B6" s="96">
-        <f t="shared" si="0"/>
-        <v>6.9129999999999997E-2</v>
-      </c>
-      <c r="C6" s="96">
-        <f t="shared" si="1"/>
-        <v>0.67747400000000002</v>
-      </c>
-      <c r="D6" s="96">
-        <f t="shared" si="2"/>
-        <v>0.67747400000000002</v>
-      </c>
-      <c r="E6" s="96">
-        <v>13.7</v>
-      </c>
-      <c r="F6" s="96">
-        <f t="shared" si="3"/>
-        <v>3.6999999999999991E-2</v>
-      </c>
-      <c r="G6" s="97">
-        <f t="shared" si="4"/>
-        <v>18.310108108108114</v>
-      </c>
-      <c r="H6" s="98">
-        <f t="shared" si="5"/>
-        <v>-0.22005855855855216</v>
-      </c>
-      <c r="J6" s="110">
-        <v>50.64</v>
-      </c>
-      <c r="K6" s="111">
-        <f t="shared" si="6"/>
-        <v>5.0640000000000004E-2</v>
-      </c>
-      <c r="L6" s="111">
-        <f>8-K1</f>
-        <v>1.4000000000000004</v>
-      </c>
-      <c r="M6" s="111">
-        <f t="shared" si="7"/>
-        <v>1.4000000000000004E-2</v>
-      </c>
-      <c r="N6" s="111">
-        <f>K6*K2</f>
-        <v>0.4962720000000001</v>
-      </c>
-      <c r="O6" s="112">
-        <f t="shared" si="8"/>
-        <v>35.448</v>
-      </c>
-      <c r="P6" s="111"/>
-      <c r="Q6" s="111">
-        <f>(44.48+M11+M12)</f>
-        <v>53.204289931707592</v>
-      </c>
-      <c r="R6" s="111">
-        <f>Q6+M12</f>
-        <v>55.733443685522936</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A7" s="95">
-        <v>78.22</v>
-      </c>
-      <c r="B7" s="96">
-        <f t="shared" si="0"/>
-        <v>7.8219999999999998E-2</v>
-      </c>
-      <c r="C7" s="96">
-        <f t="shared" si="1"/>
-        <v>0.76655600000000002</v>
-      </c>
-      <c r="D7" s="96">
-        <f t="shared" si="2"/>
-        <v>0.76655600000000002</v>
-      </c>
-      <c r="E7" s="96">
-        <v>14</v>
-      </c>
-      <c r="F7" s="96">
-        <f t="shared" si="3"/>
-        <v>0.04</v>
-      </c>
-      <c r="G7" s="97">
-        <f t="shared" si="4"/>
-        <v>19.163900000000002</v>
-      </c>
-      <c r="H7" s="98">
-        <f t="shared" si="5"/>
-        <v>0.85379189189188764</v>
-      </c>
-      <c r="J7" s="113">
-        <v>70.28</v>
-      </c>
-      <c r="K7" s="114">
-        <f t="shared" si="6"/>
-        <v>7.0280000000000009E-2</v>
-      </c>
-      <c r="L7" s="114">
-        <f>8.4-K1</f>
-        <v>1.8000000000000007</v>
-      </c>
-      <c r="M7" s="114">
-        <f t="shared" si="7"/>
-        <v>1.8000000000000009E-2</v>
-      </c>
-      <c r="N7" s="114">
-        <f>K7*K2</f>
-        <v>0.68874400000000013</v>
-      </c>
-      <c r="O7" s="115">
-        <f t="shared" si="8"/>
-        <v>38.263555555555541</v>
-      </c>
-      <c r="P7" s="114"/>
-      <c r="Q7" s="111">
-        <f>(44.48+M11+M12)</f>
-        <v>53.204289931707592</v>
-      </c>
-      <c r="R7" s="111">
-        <f>Q7+M12</f>
-        <v>55.733443685522936</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A8" s="95">
-        <v>87.72</v>
-      </c>
-      <c r="B8" s="96">
-        <f t="shared" si="0"/>
-        <v>8.7720000000000006E-2</v>
-      </c>
-      <c r="C8" s="96">
-        <f t="shared" si="1"/>
-        <v>0.85965600000000009</v>
-      </c>
-      <c r="D8" s="96">
-        <f t="shared" si="2"/>
-        <v>0.85965600000000009</v>
-      </c>
-      <c r="E8" s="96">
-        <v>14.6</v>
-      </c>
-      <c r="F8" s="96">
-        <f t="shared" si="3"/>
-        <v>4.5999999999999999E-2</v>
-      </c>
-      <c r="G8" s="97">
-        <f t="shared" si="4"/>
-        <v>18.688173913043482</v>
-      </c>
-      <c r="H8" s="98">
-        <f t="shared" si="5"/>
-        <v>-0.47572608695652008</v>
-      </c>
-      <c r="J8" s="110">
-        <v>90.63</v>
-      </c>
-      <c r="K8" s="111">
-        <f t="shared" si="6"/>
-        <v>9.0630000000000002E-2</v>
-      </c>
-      <c r="L8" s="111">
-        <f>8.9-K1</f>
-        <v>2.3000000000000007</v>
-      </c>
-      <c r="M8" s="111">
-        <f t="shared" si="7"/>
-        <v>2.3000000000000007E-2</v>
-      </c>
-      <c r="N8" s="111">
-        <f>K8*K2</f>
-        <v>0.88817400000000013</v>
-      </c>
-      <c r="O8" s="112">
-        <f t="shared" si="8"/>
-        <v>38.61626086956521</v>
-      </c>
-      <c r="P8" s="111"/>
-      <c r="Q8" s="111">
-        <f>(44.48+M11+M12)</f>
-        <v>53.204289931707592</v>
-      </c>
-      <c r="R8" s="111">
-        <f>Q8+M12</f>
-        <v>55.733443685522936</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A9" s="95">
-        <v>88.45</v>
-      </c>
-      <c r="B9" s="96">
-        <f t="shared" si="0"/>
-        <v>8.8450000000000001E-2</v>
-      </c>
-      <c r="C9" s="96">
-        <f t="shared" si="1"/>
-        <v>0.86681000000000008</v>
-      </c>
-      <c r="D9" s="96">
-        <f t="shared" si="2"/>
-        <v>0.86681000000000008</v>
-      </c>
-      <c r="E9" s="96">
-        <v>14.7</v>
-      </c>
-      <c r="F9" s="96">
-        <f t="shared" si="3"/>
-        <v>4.6999999999999993E-2</v>
-      </c>
-      <c r="G9" s="97">
-        <f t="shared" si="4"/>
-        <v>18.442765957446813</v>
-      </c>
-      <c r="H9" s="98">
-        <f t="shared" si="5"/>
-        <v>-0.24540795559666861</v>
-      </c>
-      <c r="J9" s="116">
-        <v>114.86</v>
-      </c>
-      <c r="K9" s="117">
-        <f t="shared" si="6"/>
-        <v>0.11486</v>
-      </c>
-      <c r="L9" s="117">
-        <f>9.3-K1</f>
-        <v>2.7000000000000011</v>
-      </c>
-      <c r="M9" s="117">
-        <f t="shared" si="7"/>
-        <v>2.700000000000001E-2</v>
-      </c>
-      <c r="N9" s="117">
-        <f>K9*K2</f>
-        <v>1.1256280000000001</v>
-      </c>
-      <c r="O9" s="118">
-        <f t="shared" si="8"/>
-        <v>41.689925925925913</v>
-      </c>
-      <c r="P9" s="114"/>
-      <c r="Q9" s="111">
-        <f>(44.48+M11+M12)</f>
-        <v>53.204289931707592</v>
-      </c>
-      <c r="R9" s="111">
-        <f>Q9+M12</f>
-        <v>55.733443685522936</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A10" s="95">
-        <v>97.8</v>
-      </c>
-      <c r="B10" s="96">
-        <f t="shared" si="0"/>
-        <v>9.7799999999999998E-2</v>
-      </c>
-      <c r="C10" s="96">
-        <f t="shared" si="1"/>
-        <v>0.95844000000000007</v>
-      </c>
-      <c r="D10" s="96">
-        <f t="shared" si="2"/>
-        <v>0.95844000000000007</v>
-      </c>
-      <c r="E10" s="96">
-        <v>15.3</v>
-      </c>
-      <c r="F10" s="96">
-        <f t="shared" si="3"/>
-        <v>5.3000000000000005E-2</v>
-      </c>
-      <c r="G10" s="97">
-        <f t="shared" si="4"/>
-        <v>18.083773584905661</v>
-      </c>
-      <c r="H10" s="98">
-        <f t="shared" si="5"/>
-        <v>-0.35899237254115235</v>
-      </c>
-      <c r="J10" s="175" t="s">
-        <v>177</v>
-      </c>
-      <c r="K10" s="176"/>
-      <c r="L10" s="177"/>
-      <c r="M10" s="104">
-        <f>AVERAGE(O4:O9)</f>
-        <v>34.986157058507771</v>
-      </c>
-      <c r="N10" s="104"/>
-      <c r="O10" s="104"/>
-      <c r="P10" s="104"/>
-      <c r="Q10" s="104"/>
-      <c r="R10" s="104"/>
-    </row>
-    <row r="11" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="95">
-        <v>98.52</v>
-      </c>
-      <c r="B11" s="96">
-        <f t="shared" si="0"/>
-        <v>9.8519999999999996E-2</v>
-      </c>
-      <c r="C11" s="96">
-        <f t="shared" si="1"/>
-        <v>0.96549600000000002</v>
-      </c>
-      <c r="D11" s="96">
-        <f t="shared" si="2"/>
-        <v>0.96549600000000002</v>
-      </c>
-      <c r="E11" s="99">
-        <v>15.4</v>
-      </c>
-      <c r="F11" s="96">
-        <f t="shared" si="3"/>
-        <v>5.4000000000000006E-2</v>
-      </c>
-      <c r="G11" s="97">
-        <f t="shared" si="4"/>
-        <v>17.879555555555555</v>
-      </c>
-      <c r="H11" s="98">
-        <f t="shared" si="5"/>
-        <v>-0.20421802935010547</v>
-      </c>
-      <c r="J11" s="178" t="s">
-        <v>178</v>
-      </c>
-      <c r="K11" s="179"/>
-      <c r="L11" s="180"/>
-      <c r="M11" s="104">
-        <f>_xlfn.STDEV.S(O4:O9)</f>
-        <v>6.1951361778922536</v>
-      </c>
-      <c r="N11" s="104"/>
-      <c r="O11" s="104"/>
-      <c r="P11" s="104"/>
-      <c r="Q11" s="104"/>
-      <c r="R11" s="104"/>
-    </row>
-    <row r="12" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A12" s="169" t="s">
-        <v>177</v>
-      </c>
-      <c r="B12" s="170"/>
-      <c r="C12" s="170"/>
-      <c r="D12" s="171"/>
-      <c r="E12" s="100">
-        <f>G12</f>
-        <v>19.262577334038216</v>
-      </c>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3">
-        <f>AVERAGE(G2:G11)</f>
-        <v>19.262577334038216</v>
-      </c>
-      <c r="H12" s="3"/>
-      <c r="J12" s="181" t="s">
-        <v>179</v>
-      </c>
-      <c r="K12" s="182"/>
-      <c r="L12" s="183"/>
-      <c r="M12" s="104">
-        <f>M11/SQRT(6)</f>
-        <v>2.529153753815343</v>
-      </c>
-      <c r="N12" s="104"/>
-      <c r="O12" s="104"/>
-      <c r="P12" s="104"/>
-      <c r="Q12" s="104"/>
-      <c r="R12" s="104"/>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A13" s="169" t="s">
-        <v>178</v>
-      </c>
-      <c r="B13" s="170"/>
-      <c r="C13" s="170"/>
-      <c r="D13" s="171"/>
-      <c r="E13" s="100">
-        <f>_xlfn.STDEV.S(G2:G11)</f>
-        <v>1.5273668152842281</v>
-      </c>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-    </row>
-    <row r="14" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="172" t="s">
-        <v>179</v>
-      </c>
-      <c r="B14" s="173"/>
-      <c r="C14" s="173"/>
-      <c r="D14" s="174"/>
-      <c r="E14" s="101">
-        <f>E13/SQRT(10)</f>
-        <v>0.48299579588558378</v>
-      </c>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-    </row>
-  </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="A13:D13"/>
-    <mergeCell ref="A14:D14"/>
-    <mergeCell ref="J10:L10"/>
-    <mergeCell ref="J11:L11"/>
-    <mergeCell ref="J12:L12"/>
-  </mergeCells>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D08AE2E-27D8-40C8-B129-F8ECE2FE09EF}">
   <dimension ref="A1:M21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
@@ -9430,21 +9862,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="184" t="s">
+      <c r="A1" s="251" t="s">
         <v>213</v>
       </c>
-      <c r="B1" s="185"/>
-      <c r="C1" s="186"/>
-      <c r="D1" s="184" t="s">
+      <c r="B1" s="252"/>
+      <c r="C1" s="253"/>
+      <c r="D1" s="251" t="s">
         <v>212</v>
       </c>
-      <c r="E1" s="185"/>
-      <c r="F1" s="186"/>
-      <c r="G1" s="184" t="s">
+      <c r="E1" s="252"/>
+      <c r="F1" s="253"/>
+      <c r="G1" s="251" t="s">
         <v>211</v>
       </c>
-      <c r="H1" s="185"/>
-      <c r="I1" s="186"/>
+      <c r="H1" s="252"/>
+      <c r="I1" s="253"/>
     </row>
     <row r="2" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="139"/>
@@ -9484,20 +9916,20 @@
         <v>3.5</v>
       </c>
       <c r="F3" s="136"/>
-      <c r="G3" s="187" t="s">
+      <c r="G3" s="143" t="s">
         <v>5</v>
       </c>
       <c r="H3" s="135">
         <v>1</v>
       </c>
       <c r="I3" s="136"/>
-      <c r="K3" s="193" t="s">
+      <c r="K3" s="149" t="s">
         <v>222</v>
       </c>
-      <c r="L3" s="190" t="s">
+      <c r="L3" s="146" t="s">
         <v>221</v>
       </c>
-      <c r="M3" s="190">
+      <c r="M3" s="146">
         <f>M6/M7</f>
         <v>0.14149789983194438</v>
       </c>
@@ -9551,7 +9983,7 @@
         <v>2.6</v>
       </c>
       <c r="F5" s="127"/>
-      <c r="G5" s="188" t="s">
+      <c r="G5" s="144" t="s">
         <v>226</v>
       </c>
       <c r="H5" s="128">
@@ -9573,7 +10005,7 @@
       <c r="D6" s="130" t="s">
         <v>217</v>
       </c>
-      <c r="E6" s="189">
+      <c r="E6" s="145">
         <f>SQRT(2*E9/E7)</f>
         <v>3.4882660448996718</v>
       </c>
@@ -9665,7 +10097,7 @@
       <c r="D10" s="128" t="s">
         <v>34</v>
       </c>
-      <c r="E10" s="188">
+      <c r="E10" s="144">
         <v>9.8000000000000007</v>
       </c>
       <c r="F10" s="127"/>
@@ -9673,7 +10105,7 @@
         <v>202</v>
       </c>
       <c r="H10" s="140"/>
-      <c r="I10" s="191">
+      <c r="I10" s="147">
         <f>I9/I8</f>
         <v>0.14149789983194438</v>
       </c>
@@ -9682,7 +10114,7 @@
       </c>
     </row>
     <row r="11" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I11" s="192">
+      <c r="I11" s="148">
         <f>I7^2/(H4*9.8)</f>
         <v>0.14438561207341263</v>
       </c>
@@ -9691,21 +10123,21 @@
       </c>
     </row>
     <row r="12" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="184" t="s">
+      <c r="A12" s="251" t="s">
         <v>201</v>
       </c>
-      <c r="B12" s="185"/>
-      <c r="C12" s="186"/>
-      <c r="D12" s="184" t="s">
+      <c r="B12" s="252"/>
+      <c r="C12" s="253"/>
+      <c r="D12" s="251" t="s">
         <v>200</v>
       </c>
-      <c r="E12" s="185"/>
-      <c r="F12" s="186"/>
-      <c r="G12" s="184" t="s">
+      <c r="E12" s="252"/>
+      <c r="F12" s="253"/>
+      <c r="G12" s="251" t="s">
         <v>199</v>
       </c>
-      <c r="H12" s="185"/>
-      <c r="I12" s="186"/>
+      <c r="H12" s="252"/>
+      <c r="I12" s="253"/>
     </row>
     <row r="13" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="139"/>
@@ -9872,4 +10304,1122 @@
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E7AD0DC-8869-4B5D-94A9-87C4773D4CFD}">
+  <dimension ref="A1:O17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M15" sqref="M15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="4" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="195" t="s">
+        <v>232</v>
+      </c>
+      <c r="B1" s="194">
+        <v>10</v>
+      </c>
+      <c r="C1" s="193"/>
+      <c r="D1" s="192"/>
+      <c r="E1" s="192"/>
+      <c r="F1" s="192"/>
+      <c r="G1" s="192"/>
+      <c r="H1" s="192"/>
+      <c r="I1" s="192"/>
+      <c r="J1" s="192"/>
+      <c r="K1" s="192"/>
+      <c r="L1" s="191"/>
+      <c r="M1" s="191"/>
+      <c r="N1" s="191"/>
+      <c r="O1" s="191"/>
+    </row>
+    <row r="2" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="254" t="s">
+        <v>233</v>
+      </c>
+      <c r="B2" s="255"/>
+      <c r="C2" s="256"/>
+      <c r="D2" s="257" t="s">
+        <v>234</v>
+      </c>
+      <c r="E2" s="257"/>
+      <c r="F2" s="258"/>
+      <c r="G2" s="254" t="s">
+        <v>235</v>
+      </c>
+      <c r="H2" s="255"/>
+      <c r="I2" s="256"/>
+      <c r="J2" s="254" t="s">
+        <v>236</v>
+      </c>
+      <c r="K2" s="255"/>
+      <c r="L2" s="256"/>
+      <c r="M2" s="254" t="s">
+        <v>237</v>
+      </c>
+      <c r="N2" s="255"/>
+      <c r="O2" s="256"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="190" t="s">
+        <v>238</v>
+      </c>
+      <c r="B3" s="189"/>
+      <c r="C3" s="154"/>
+      <c r="D3" s="259" t="s">
+        <v>238</v>
+      </c>
+      <c r="E3" s="260"/>
+      <c r="F3" s="153"/>
+      <c r="G3" s="261" t="s">
+        <v>238</v>
+      </c>
+      <c r="H3" s="262"/>
+      <c r="I3" s="155"/>
+      <c r="J3" s="261" t="s">
+        <v>238</v>
+      </c>
+      <c r="K3" s="262"/>
+      <c r="L3" s="154"/>
+      <c r="M3" s="261" t="s">
+        <v>238</v>
+      </c>
+      <c r="N3" s="262"/>
+      <c r="O3" s="154"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="171" t="s">
+        <v>239</v>
+      </c>
+      <c r="B4" s="187">
+        <v>4</v>
+      </c>
+      <c r="C4" s="154"/>
+      <c r="D4" s="173" t="s">
+        <v>214</v>
+      </c>
+      <c r="E4" s="187">
+        <v>7</v>
+      </c>
+      <c r="F4" s="154"/>
+      <c r="G4" s="171" t="s">
+        <v>5</v>
+      </c>
+      <c r="H4" s="170">
+        <v>804</v>
+      </c>
+      <c r="I4" s="155"/>
+      <c r="J4" s="171" t="s">
+        <v>5</v>
+      </c>
+      <c r="K4" s="170">
+        <v>0.45</v>
+      </c>
+      <c r="L4" s="154"/>
+      <c r="M4" s="171" t="s">
+        <v>5</v>
+      </c>
+      <c r="N4" s="170">
+        <v>0.37</v>
+      </c>
+      <c r="O4" s="154"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="171" t="s">
+        <v>240</v>
+      </c>
+      <c r="B5" s="187">
+        <v>41</v>
+      </c>
+      <c r="C5" s="154"/>
+      <c r="D5" s="173" t="s">
+        <v>215</v>
+      </c>
+      <c r="E5" s="187">
+        <v>3</v>
+      </c>
+      <c r="F5" s="154"/>
+      <c r="G5" s="171" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" s="170">
+        <f>71/3.6</f>
+        <v>19.722222222222221</v>
+      </c>
+      <c r="I5" s="155"/>
+      <c r="J5" s="171" t="s">
+        <v>241</v>
+      </c>
+      <c r="K5" s="170">
+        <v>0.73</v>
+      </c>
+      <c r="L5" s="154"/>
+      <c r="M5" s="171" t="s">
+        <v>242</v>
+      </c>
+      <c r="N5" s="170">
+        <v>0.05</v>
+      </c>
+      <c r="O5" s="154"/>
+    </row>
+    <row r="6" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="171" t="s">
+        <v>243</v>
+      </c>
+      <c r="B6" s="187">
+        <v>7</v>
+      </c>
+      <c r="C6" s="154"/>
+      <c r="D6" s="162" t="s">
+        <v>244</v>
+      </c>
+      <c r="E6" s="188">
+        <v>4</v>
+      </c>
+      <c r="F6" s="150"/>
+      <c r="G6" s="171" t="s">
+        <v>245</v>
+      </c>
+      <c r="H6" s="170">
+        <v>2.6</v>
+      </c>
+      <c r="I6" s="155"/>
+      <c r="J6" s="171" t="s">
+        <v>246</v>
+      </c>
+      <c r="K6" s="170">
+        <v>60</v>
+      </c>
+      <c r="L6" s="154"/>
+      <c r="M6" s="171" t="s">
+        <v>49</v>
+      </c>
+      <c r="N6" s="170">
+        <v>1</v>
+      </c>
+      <c r="O6" s="154"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="164" t="s">
+        <v>247</v>
+      </c>
+      <c r="B7" s="187">
+        <v>0.6</v>
+      </c>
+      <c r="C7" s="154"/>
+      <c r="D7" s="255" t="s">
+        <v>248</v>
+      </c>
+      <c r="E7" s="268"/>
+      <c r="F7" s="181">
+        <f>E8</f>
+        <v>280</v>
+      </c>
+      <c r="G7" s="263" t="s">
+        <v>249</v>
+      </c>
+      <c r="H7" s="264"/>
+      <c r="I7" s="186">
+        <f>H8/1000</f>
+        <v>156.36435185185184</v>
+      </c>
+      <c r="J7" s="171" t="s">
+        <v>250</v>
+      </c>
+      <c r="K7" s="170">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="L7" s="154"/>
+      <c r="M7" s="263" t="s">
+        <v>248</v>
+      </c>
+      <c r="N7" s="264"/>
+      <c r="O7" s="181">
+        <f>N8</f>
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="263" t="s">
+        <v>248</v>
+      </c>
+      <c r="B8" s="264"/>
+      <c r="C8" s="182">
+        <f>B9</f>
+        <v>-98</v>
+      </c>
+      <c r="D8" s="173" t="s">
+        <v>251</v>
+      </c>
+      <c r="E8" s="177">
+        <f>E4*B1*E6</f>
+        <v>280</v>
+      </c>
+      <c r="F8" s="150"/>
+      <c r="G8" s="176" t="s">
+        <v>252</v>
+      </c>
+      <c r="H8" s="177">
+        <f>H4*H5 ^2/2</f>
+        <v>156364.35185185182</v>
+      </c>
+      <c r="I8" s="155"/>
+      <c r="J8" s="263" t="s">
+        <v>248</v>
+      </c>
+      <c r="K8" s="264"/>
+      <c r="L8" s="181">
+        <f>K9</f>
+        <v>1.6424999999999996</v>
+      </c>
+      <c r="M8" s="171" t="s">
+        <v>253</v>
+      </c>
+      <c r="N8" s="177">
+        <f>N12*N5 ^2/2</f>
+        <v>3.7</v>
+      </c>
+      <c r="O8" s="183"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="176" t="s">
+        <v>252</v>
+      </c>
+      <c r="B9" s="177">
+        <f>-B4*B6 ^2/2</f>
+        <v>-98</v>
+      </c>
+      <c r="C9" s="154"/>
+      <c r="D9" s="267" t="s">
+        <v>254</v>
+      </c>
+      <c r="E9" s="264"/>
+      <c r="F9" s="185">
+        <f>SUM(E10:E13)</f>
+        <v>280</v>
+      </c>
+      <c r="G9" s="263" t="s">
+        <v>255</v>
+      </c>
+      <c r="H9" s="264"/>
+      <c r="I9" s="184">
+        <f>H10/1000</f>
+        <v>-156.36435185185186</v>
+      </c>
+      <c r="J9" s="171" t="s">
+        <v>256</v>
+      </c>
+      <c r="K9" s="177">
+        <f>K4*B1*K13</f>
+        <v>1.6424999999999996</v>
+      </c>
+      <c r="L9" s="183"/>
+      <c r="M9" s="263" t="s">
+        <v>254</v>
+      </c>
+      <c r="N9" s="264"/>
+      <c r="O9" s="181">
+        <f>N10</f>
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="263" t="s">
+        <v>254</v>
+      </c>
+      <c r="B10" s="264"/>
+      <c r="C10" s="182">
+        <f>B11+B12</f>
+        <v>-98</v>
+      </c>
+      <c r="D10" s="180" t="s">
+        <v>257</v>
+      </c>
+      <c r="E10" s="170">
+        <f>E4*E15 ^2/2</f>
+        <v>55.999999999999986</v>
+      </c>
+      <c r="F10" s="154"/>
+      <c r="G10" s="178" t="s">
+        <v>258</v>
+      </c>
+      <c r="H10" s="177">
+        <f>-H14*H4*B1*H13</f>
+        <v>-156364.35185185185</v>
+      </c>
+      <c r="I10" s="155"/>
+      <c r="J10" s="263" t="s">
+        <v>254</v>
+      </c>
+      <c r="K10" s="264"/>
+      <c r="L10" s="181">
+        <f>K11</f>
+        <v>-1.6424999999999996</v>
+      </c>
+      <c r="M10" s="178" t="s">
+        <v>256</v>
+      </c>
+      <c r="N10" s="177">
+        <f>N4*B1*N6</f>
+        <v>3.7</v>
+      </c>
+      <c r="O10" s="154"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="176" t="s">
+        <v>259</v>
+      </c>
+      <c r="B11" s="170">
+        <f>-B4*B1*SIN(RADIANS(B5))*B14</f>
+        <v>-57.980582083390104</v>
+      </c>
+      <c r="C11" s="154"/>
+      <c r="D11" s="180" t="s">
+        <v>260</v>
+      </c>
+      <c r="E11" s="170">
+        <f>E5*E15 ^2/2</f>
+        <v>23.999999999999993</v>
+      </c>
+      <c r="F11" s="154"/>
+      <c r="G11" s="265" t="s">
+        <v>261</v>
+      </c>
+      <c r="H11" s="266"/>
+      <c r="I11" s="179"/>
+      <c r="J11" s="178" t="s">
+        <v>258</v>
+      </c>
+      <c r="K11" s="177">
+        <f>-K14*K4*B1*K7</f>
+        <v>-1.6424999999999996</v>
+      </c>
+      <c r="L11" s="154"/>
+      <c r="M11" s="265" t="s">
+        <v>261</v>
+      </c>
+      <c r="N11" s="266"/>
+      <c r="O11" s="154"/>
+    </row>
+    <row r="12" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="176" t="s">
+        <v>262</v>
+      </c>
+      <c r="B12" s="170">
+        <f>-B7*B4*B1*COS(RADIANS(B5))*B14</f>
+        <v>-40.019417916609889</v>
+      </c>
+      <c r="C12" s="154"/>
+      <c r="D12" s="173" t="s">
+        <v>263</v>
+      </c>
+      <c r="E12" s="170">
+        <f>E4*B1*E6/2</f>
+        <v>140</v>
+      </c>
+      <c r="F12" s="154"/>
+      <c r="G12" s="175" t="s">
+        <v>6</v>
+      </c>
+      <c r="H12" s="174">
+        <f>-H5/H6</f>
+        <v>-7.5854700854700852</v>
+      </c>
+      <c r="I12" s="155"/>
+      <c r="J12" s="265" t="s">
+        <v>261</v>
+      </c>
+      <c r="K12" s="266"/>
+      <c r="L12" s="154"/>
+      <c r="M12" s="160" t="s">
+        <v>264</v>
+      </c>
+      <c r="N12" s="165">
+        <f>(2*N4*B1*N6/(N5^2))</f>
+        <v>2959.9999999999995</v>
+      </c>
+      <c r="O12" s="151"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="263" t="s">
+        <v>261</v>
+      </c>
+      <c r="B13" s="264"/>
+      <c r="C13" s="154"/>
+      <c r="D13" s="173" t="s">
+        <v>265</v>
+      </c>
+      <c r="E13" s="170">
+        <f>E5*B1*E6/2</f>
+        <v>60</v>
+      </c>
+      <c r="F13" s="172"/>
+      <c r="G13" s="171" t="s">
+        <v>250</v>
+      </c>
+      <c r="H13" s="170">
+        <f>H5*H6+H12*H6 ^2/2</f>
+        <v>25.638888888888889</v>
+      </c>
+      <c r="I13" s="155"/>
+      <c r="J13" s="171" t="s">
+        <v>49</v>
+      </c>
+      <c r="K13" s="170">
+        <f>K5-(COS(RADIANS(K6))*K5)</f>
+        <v>0.36499999999999994</v>
+      </c>
+      <c r="L13" s="154"/>
+      <c r="M13" s="157"/>
+      <c r="N13" s="157"/>
+      <c r="O13" s="157"/>
+    </row>
+    <row r="14" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="164" t="s">
+        <v>266</v>
+      </c>
+      <c r="B14" s="170">
+        <f>(B6^2)/(2*B1*(SIN(RADIANS(B5))+B7*COS(RADIANS(B5))))</f>
+        <v>2.2094270302401799</v>
+      </c>
+      <c r="C14" s="154"/>
+      <c r="D14" s="267" t="s">
+        <v>261</v>
+      </c>
+      <c r="E14" s="264"/>
+      <c r="F14" s="169"/>
+      <c r="G14" s="168" t="s">
+        <v>267</v>
+      </c>
+      <c r="H14" s="167">
+        <f>-H12/B1</f>
+        <v>0.75854700854700852</v>
+      </c>
+      <c r="I14" s="166">
+        <f>(H4*H5 ^2)/(2*H4*B1*H13)</f>
+        <v>0.75854700854700841</v>
+      </c>
+      <c r="J14" s="160" t="s">
+        <v>247</v>
+      </c>
+      <c r="K14" s="165">
+        <f>K13/K7</f>
+        <v>0.32589285714285704</v>
+      </c>
+      <c r="L14" s="151"/>
+      <c r="M14" s="157"/>
+      <c r="N14" s="157"/>
+      <c r="O14" s="157"/>
+    </row>
+    <row r="15" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="164" t="s">
+        <v>49</v>
+      </c>
+      <c r="B15" s="163">
+        <f>B14*SIN(RADIANS(B5))</f>
+        <v>1.4495145520847525</v>
+      </c>
+      <c r="C15" s="154"/>
+      <c r="D15" s="162" t="s">
+        <v>268</v>
+      </c>
+      <c r="E15" s="161">
+        <f>SQRT(B1*E6*(2*E4/(E4+E5)-1))</f>
+        <v>3.9999999999999996</v>
+      </c>
+      <c r="F15" s="156"/>
+      <c r="G15" s="157"/>
+      <c r="H15" s="157"/>
+      <c r="I15" s="157"/>
+      <c r="J15" s="157"/>
+      <c r="K15" s="157"/>
+      <c r="L15" s="157"/>
+      <c r="M15" s="157"/>
+      <c r="N15" s="157"/>
+      <c r="O15" s="157"/>
+    </row>
+    <row r="16" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="160" t="s">
+        <v>269</v>
+      </c>
+      <c r="B16" s="159">
+        <f>B14*COS(RADIANS(B5))</f>
+        <v>1.667475746525412</v>
+      </c>
+      <c r="C16" s="151"/>
+      <c r="D16" s="157"/>
+      <c r="E16" s="157"/>
+      <c r="F16" s="157"/>
+      <c r="G16" s="157"/>
+      <c r="H16" s="157"/>
+      <c r="I16" s="157"/>
+      <c r="J16" s="157"/>
+      <c r="K16" s="157"/>
+      <c r="L16" s="157"/>
+      <c r="M16" s="157"/>
+      <c r="N16" s="157"/>
+      <c r="O16" s="157"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17" s="157"/>
+      <c r="B17" s="157"/>
+      <c r="C17" s="157"/>
+      <c r="D17" s="157"/>
+      <c r="E17" s="158"/>
+      <c r="F17" s="157"/>
+      <c r="G17" s="155"/>
+      <c r="H17" s="157"/>
+      <c r="I17" s="155"/>
+      <c r="J17" s="157"/>
+      <c r="K17" s="157"/>
+      <c r="L17" s="157"/>
+      <c r="M17" s="157"/>
+      <c r="N17" s="157"/>
+      <c r="O17" s="157"/>
+    </row>
+  </sheetData>
+  <mergeCells count="24">
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="M2:O2"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="J3:K3"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E841A18D-5A74-45BA-A3D3-19096B3F4A93}">
+  <dimension ref="A1:L19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="62"/>
+    <col min="4" max="4" width="9.85546875" style="62" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" style="62" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" style="62" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="62" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.85546875" style="62" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17" style="62" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" s="150" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D1" s="271" t="s">
+        <v>274</v>
+      </c>
+      <c r="E1" s="272"/>
+      <c r="F1" s="272"/>
+      <c r="G1" s="272"/>
+      <c r="H1" s="272"/>
+      <c r="I1" s="273"/>
+      <c r="J1" s="269"/>
+      <c r="K1" s="270"/>
+      <c r="L1" s="270"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="196" t="s">
+        <v>272</v>
+      </c>
+      <c r="C2" s="203" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="204" t="s">
+        <v>276</v>
+      </c>
+      <c r="E2" s="204" t="s">
+        <v>277</v>
+      </c>
+      <c r="F2" s="205" t="s">
+        <v>275</v>
+      </c>
+      <c r="G2" s="206" t="s">
+        <v>279</v>
+      </c>
+      <c r="H2" s="206" t="s">
+        <v>278</v>
+      </c>
+      <c r="I2" s="206" t="s">
+        <v>280</v>
+      </c>
+      <c r="J2" s="197"/>
+      <c r="K2" s="208"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="196" t="s">
+        <v>271</v>
+      </c>
+      <c r="B3">
+        <v>38</v>
+      </c>
+      <c r="C3" s="202">
+        <v>1</v>
+      </c>
+      <c r="D3" s="198">
+        <v>14.8</v>
+      </c>
+      <c r="E3" s="198">
+        <f>B3*SIN(RADIANS(F3))</f>
+        <v>14.847782882592403</v>
+      </c>
+      <c r="F3" s="198">
+        <v>23</v>
+      </c>
+      <c r="G3" s="198">
+        <f>DEGREES(ASIN(D3/B3))</f>
+        <v>22.921754462892675</v>
+      </c>
+      <c r="H3" s="201">
+        <f>TAN(RADIANS(F3))</f>
+        <v>0.42447481620960476</v>
+      </c>
+      <c r="I3" s="201">
+        <f>TAN(RADIANS(G3))</f>
+        <v>0.4228640468163074</v>
+      </c>
+      <c r="J3" s="200"/>
+      <c r="K3" s="152"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="196" t="s">
+        <v>270</v>
+      </c>
+      <c r="C4" s="202">
+        <v>2</v>
+      </c>
+      <c r="D4" s="198">
+        <v>15.2</v>
+      </c>
+      <c r="E4" s="198">
+        <f>B3*SIN(RADIANS(F4))</f>
+        <v>15.455992436880408</v>
+      </c>
+      <c r="F4" s="198">
+        <v>24</v>
+      </c>
+      <c r="G4" s="198">
+        <f>DEGREES(ASIN(D4/B3))</f>
+        <v>23.578178478201828</v>
+      </c>
+      <c r="H4" s="201">
+        <f t="shared" ref="H4:H8" si="0">TAN(RADIANS(F4))</f>
+        <v>0.44522868530853621</v>
+      </c>
+      <c r="I4" s="201">
+        <f t="shared" ref="I4:I8" si="1">TAN(RADIANS(G4))</f>
+        <v>0.43643578047198467</v>
+      </c>
+      <c r="J4" s="200"/>
+      <c r="K4" s="152"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C5" s="202">
+        <v>3</v>
+      </c>
+      <c r="D5" s="198">
+        <v>14.5</v>
+      </c>
+      <c r="E5" s="198">
+        <f>B3*SIN(RADIANS(F5))</f>
+        <v>14.235050549804656</v>
+      </c>
+      <c r="F5" s="198">
+        <v>22</v>
+      </c>
+      <c r="G5" s="198">
+        <f>DEGREES(ASIN(D5/B3))</f>
+        <v>22.431520635372987</v>
+      </c>
+      <c r="H5" s="201">
+        <f t="shared" si="0"/>
+        <v>0.40402622583515679</v>
+      </c>
+      <c r="I5" s="201">
+        <f t="shared" si="1"/>
+        <v>0.41281400194595419</v>
+      </c>
+      <c r="J5" s="200"/>
+      <c r="K5" s="152"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C6" s="202">
+        <v>4</v>
+      </c>
+      <c r="D6" s="198">
+        <v>16.2</v>
+      </c>
+      <c r="E6" s="198">
+        <f>B3*SIN(RADIANS(F6))</f>
+        <v>16.658103577984942</v>
+      </c>
+      <c r="F6" s="198">
+        <v>26</v>
+      </c>
+      <c r="G6" s="198">
+        <f>DEGREES(ASIN(D6/B3))</f>
+        <v>25.233977053477833</v>
+      </c>
+      <c r="H6" s="201">
+        <f t="shared" si="0"/>
+        <v>0.48773258856586144</v>
+      </c>
+      <c r="I6" s="201">
+        <f t="shared" si="1"/>
+        <v>0.47128880589568251</v>
+      </c>
+      <c r="J6" s="200"/>
+      <c r="K6" s="152"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C7" s="202">
+        <v>5</v>
+      </c>
+      <c r="D7" s="198">
+        <v>16</v>
+      </c>
+      <c r="E7" s="198">
+        <f>B3*SIN(RADIANS(F7))</f>
+        <v>16.059493946146578</v>
+      </c>
+      <c r="F7" s="198">
+        <v>25</v>
+      </c>
+      <c r="G7" s="198">
+        <f>DEGREES(ASIN(D7/B3))</f>
+        <v>24.901062370366958</v>
+      </c>
+      <c r="H7" s="201">
+        <f t="shared" si="0"/>
+        <v>0.46630765815499858</v>
+      </c>
+      <c r="I7" s="201">
+        <f t="shared" si="1"/>
+        <v>0.46420708254852749</v>
+      </c>
+      <c r="J7" s="200"/>
+      <c r="K7" s="152"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C8" s="202" t="s">
+        <v>273</v>
+      </c>
+      <c r="D8" s="199">
+        <f>AVERAGE(D3:D7)</f>
+        <v>15.34</v>
+      </c>
+      <c r="E8" s="199">
+        <f>AVERAGE(E3:E7)</f>
+        <v>15.451284678681796</v>
+      </c>
+      <c r="F8" s="199">
+        <f>AVERAGE(F3:F7)</f>
+        <v>24</v>
+      </c>
+      <c r="G8" s="199">
+        <f t="shared" ref="G8:I8" si="2">AVERAGE(G3:G7)</f>
+        <v>23.813298600062456</v>
+      </c>
+      <c r="H8" s="199">
+        <f t="shared" si="2"/>
+        <v>0.44555399481483154</v>
+      </c>
+      <c r="I8" s="199">
+        <f t="shared" si="2"/>
+        <v>0.4415219435356913</v>
+      </c>
+      <c r="J8" s="209"/>
+      <c r="K8" s="198"/>
+    </row>
+    <row r="9" spans="1:12" s="150" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C9" s="203" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="274" t="str">
+        <f>"Altura: " &amp; ROUND(AVERAGE(D8:E8),3)</f>
+        <v>Altura: 15.396</v>
+      </c>
+      <c r="E9" s="250"/>
+      <c r="F9" s="274" t="str">
+        <f>"Ângulo: " &amp; ROUND(AVERAGE(F8:G8),3)</f>
+        <v>Ângulo: 23.907</v>
+      </c>
+      <c r="G9" s="250"/>
+      <c r="H9" s="274" t="str">
+        <f>"µest: " &amp; ROUND(AVERAGE(H8:I8),3)</f>
+        <v>µest: 0.444</v>
+      </c>
+      <c r="I9" s="250"/>
+      <c r="J9" s="198"/>
+      <c r="K9" s="198"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C10" s="276"/>
+      <c r="D10" s="275"/>
+      <c r="E10" s="275"/>
+      <c r="F10" s="275"/>
+      <c r="G10" s="275"/>
+      <c r="H10" s="275"/>
+      <c r="I10" s="275"/>
+      <c r="J10" s="152"/>
+      <c r="K10" s="152"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B11" s="152"/>
+      <c r="C11" s="150"/>
+      <c r="D11" s="271" t="s">
+        <v>281</v>
+      </c>
+      <c r="E11" s="272"/>
+      <c r="F11" s="272"/>
+      <c r="G11" s="272"/>
+      <c r="H11" s="272"/>
+      <c r="I11" s="273"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B12" s="152"/>
+      <c r="C12" s="203" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="207" t="s">
+        <v>276</v>
+      </c>
+      <c r="E12" s="207" t="s">
+        <v>277</v>
+      </c>
+      <c r="F12" s="205" t="s">
+        <v>275</v>
+      </c>
+      <c r="G12" s="206" t="s">
+        <v>279</v>
+      </c>
+      <c r="H12" s="206" t="s">
+        <v>278</v>
+      </c>
+      <c r="I12" s="206" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B13" s="152"/>
+      <c r="C13" s="202">
+        <v>1</v>
+      </c>
+      <c r="D13" s="201"/>
+      <c r="E13" s="201">
+        <f>B13*SIN(RADIANS(F13))</f>
+        <v>0</v>
+      </c>
+      <c r="F13" s="201"/>
+      <c r="G13" s="201" t="e">
+        <f>DEGREES(ASIN(D13/B13))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H13" s="201">
+        <f>TAN(RADIANS(F13))</f>
+        <v>0</v>
+      </c>
+      <c r="I13" s="201" t="e">
+        <f>TAN(RADIANS(G13))</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B14" s="152"/>
+      <c r="C14" s="202">
+        <v>2</v>
+      </c>
+      <c r="D14" s="201"/>
+      <c r="E14" s="201">
+        <f>B13*SIN(RADIANS(F14))</f>
+        <v>0</v>
+      </c>
+      <c r="F14" s="201"/>
+      <c r="G14" s="201" t="e">
+        <f>DEGREES(ASIN(D14/B13))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H14" s="201">
+        <f t="shared" ref="H14:H18" si="3">TAN(RADIANS(F14))</f>
+        <v>0</v>
+      </c>
+      <c r="I14" s="201" t="e">
+        <f t="shared" ref="I14:I18" si="4">TAN(RADIANS(G14))</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B15" s="152"/>
+      <c r="C15" s="202">
+        <v>3</v>
+      </c>
+      <c r="D15" s="201"/>
+      <c r="E15" s="201">
+        <f>B13*SIN(RADIANS(F15))</f>
+        <v>0</v>
+      </c>
+      <c r="F15" s="201"/>
+      <c r="G15" s="201" t="e">
+        <f>DEGREES(ASIN(D15/B13))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H15" s="201">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I15" s="201" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B16" s="152"/>
+      <c r="C16" s="202">
+        <v>4</v>
+      </c>
+      <c r="D16" s="201"/>
+      <c r="E16" s="201">
+        <f>B13*SIN(RADIANS(F16))</f>
+        <v>0</v>
+      </c>
+      <c r="F16" s="201"/>
+      <c r="G16" s="201" t="e">
+        <f>DEGREES(ASIN(D16/B13))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H16" s="201">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I16" s="201" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B17" s="152"/>
+      <c r="C17" s="202">
+        <v>5</v>
+      </c>
+      <c r="D17" s="201"/>
+      <c r="E17" s="201">
+        <f>B13*SIN(RADIANS(F17))</f>
+        <v>0</v>
+      </c>
+      <c r="F17" s="201"/>
+      <c r="G17" s="201" t="e">
+        <f>DEGREES(ASIN(D17/B13))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H17" s="201">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I17" s="201" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C18" s="202" t="s">
+        <v>273</v>
+      </c>
+      <c r="D18" s="199"/>
+      <c r="E18" s="199">
+        <f>AVERAGE(E13:E17)</f>
+        <v>0</v>
+      </c>
+      <c r="F18" s="199"/>
+      <c r="G18" s="199" t="e">
+        <f t="shared" ref="G18" si="5">AVERAGE(G13:G17)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H18" s="199">
+        <f t="shared" ref="H18" si="6">AVERAGE(H13:H17)</f>
+        <v>0</v>
+      </c>
+      <c r="I18" s="199" t="e">
+        <f t="shared" ref="I18" si="7">AVERAGE(I13:I17)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C19" s="203" t="s">
+        <v>29</v>
+      </c>
+      <c r="D19" s="274" t="str">
+        <f>"Altura: " &amp; ROUND(AVERAGE(D18:E18),3)</f>
+        <v>Altura: 0</v>
+      </c>
+      <c r="E19" s="250"/>
+      <c r="F19" s="274" t="e">
+        <f>"Ângulo: " &amp; ROUND(AVERAGE(F18:G18),3)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G19" s="250"/>
+      <c r="H19" s="274" t="e">
+        <f>"µest: " &amp; ROUND(AVERAGE(H18:I18),3)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I19" s="250"/>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="D11:I11"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="D1:I1"/>
+    <mergeCell ref="D10:I10"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="H9:I9"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Fisica A/Fisica calculos.xlsx
+++ b/Fisica A/Fisica calculos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Diretórios\Zaldef\Fisica A\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AC2FB570-99FB-4A38-9348-CAE966B61428}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{433DFBDE-9E15-40D6-A40F-8D9B9601FA5C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" firstSheet="1" activeTab="8" xr2:uid="{2C1F22F9-8DA6-4F27-8223-5F8B928661FB}"/>
   </bookViews>
@@ -24,7 +24,6 @@
     <sheet name="At 6" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="290">
   <si>
     <t>MRU/Repouso = Fres = 0</t>
   </si>
@@ -1596,9 +1595,6 @@
     <t>Distancia</t>
   </si>
   <si>
-    <t>Altura Limite (cm)</t>
-  </si>
-  <si>
     <t>Deslocamento do dado (cm)</t>
   </si>
   <si>
@@ -1609,15 +1605,6 @@
   </si>
   <si>
     <t>Lado de madeira</t>
-  </si>
-  <si>
-    <t>θ[Medido]</t>
-  </si>
-  <si>
-    <t>h[Medido</t>
-  </si>
-  <si>
-    <t>h[Calculado]</t>
   </si>
   <si>
     <r>
@@ -1645,9 +1632,6 @@
     </r>
   </si>
   <si>
-    <t>θ[Calculado]</t>
-  </si>
-  <si>
     <r>
       <t>µ</t>
     </r>
@@ -1675,16 +1659,69 @@
   <si>
     <t>Lado com fita</t>
   </si>
+  <si>
+    <t>h(cm)[Medido]</t>
+  </si>
+  <si>
+    <t>θ(graus)[Calculado]</t>
+  </si>
+  <si>
+    <t>h(cm)[Calculado]</t>
+  </si>
+  <si>
+    <t>θ(graus)[Medido]</t>
+  </si>
+  <si>
+    <t>Δt(s)[Medido]</t>
+  </si>
+  <si>
+    <t>v(m/s)</t>
+  </si>
+  <si>
+    <t>a(m/sˆ2)</t>
+  </si>
+  <si>
+    <t>En. Mec. Inicial(J)</t>
+  </si>
+  <si>
+    <t>Lado com Fita</t>
+  </si>
+  <si>
+    <t>En. Mec. Final(J)</t>
+  </si>
+  <si>
+    <t>ΔEn Mec.(J)</t>
+  </si>
+  <si>
+    <r>
+      <t>μ</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">cin </t>
+    </r>
+  </si>
+  <si>
+    <t>Deslocamento do dado (m)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="166" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1786,8 +1823,24 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="19">
+  <fills count="20">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1896,6 +1949,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="64">
     <border>
@@ -2674,7 +2733,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="277">
+  <cellXfs count="307">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2962,41 +3021,119 @@
     <xf numFmtId="0" fontId="3" fillId="10" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="58" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="51" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="36" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="61" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="51" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="62" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="44" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="57" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="62" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="51" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3176,30 +3313,38 @@
     <xf numFmtId="0" fontId="2" fillId="10" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="61" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -7583,11 +7728,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="210" t="s">
+      <c r="A1" s="236" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="210"/>
-      <c r="C1" s="210"/>
+      <c r="B1" s="236"/>
+      <c r="C1" s="236"/>
       <c r="H1" s="3" t="s">
         <v>19</v>
       </c>
@@ -7599,14 +7744,14 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="210" t="s">
+      <c r="A2" s="236" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="210"/>
-      <c r="C2" s="210"/>
-      <c r="D2" s="210"/>
-      <c r="E2" s="210"/>
-      <c r="F2" s="210"/>
+      <c r="B2" s="236"/>
+      <c r="C2" s="236"/>
+      <c r="D2" s="236"/>
+      <c r="E2" s="236"/>
+      <c r="F2" s="236"/>
       <c r="G2" s="1"/>
       <c r="H2" s="3" t="s">
         <v>21</v>
@@ -7630,11 +7775,11 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B4" s="211" t="s">
+      <c r="B4" s="237" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="212"/>
-      <c r="D4" s="213"/>
+      <c r="C4" s="238"/>
+      <c r="D4" s="239"/>
       <c r="H4" s="8" t="s">
         <v>5</v>
       </c>
@@ -7748,16 +7893,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="214" t="s">
+      <c r="A1" s="240" t="s">
         <v>118</v>
       </c>
-      <c r="B1" s="215"/>
-      <c r="C1" s="216"/>
-      <c r="D1" s="214" t="s">
+      <c r="B1" s="241"/>
+      <c r="C1" s="242"/>
+      <c r="D1" s="240" t="s">
         <v>133</v>
       </c>
-      <c r="E1" s="215"/>
-      <c r="F1" s="216"/>
+      <c r="E1" s="241"/>
+      <c r="F1" s="242"/>
       <c r="H1" s="83"/>
       <c r="I1" s="82" t="s">
         <v>145</v>
@@ -7841,11 +7986,11 @@
       <c r="C4" s="72" t="s">
         <v>166</v>
       </c>
-      <c r="D4" s="214" t="s">
+      <c r="D4" s="240" t="s">
         <v>159</v>
       </c>
-      <c r="E4" s="215"/>
-      <c r="F4" s="216"/>
+      <c r="E4" s="241"/>
+      <c r="F4" s="242"/>
       <c r="H4" s="78">
         <v>-4</v>
       </c>
@@ -8025,11 +8170,11 @@
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="214" t="s">
+      <c r="A11" s="240" t="s">
         <v>164</v>
       </c>
-      <c r="B11" s="215"/>
-      <c r="C11" s="216"/>
+      <c r="B11" s="241"/>
+      <c r="C11" s="242"/>
       <c r="F11" s="87" t="s">
         <v>163</v>
       </c>
@@ -8121,11 +8266,11 @@
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="214" t="s">
+      <c r="A16" s="240" t="s">
         <v>160</v>
       </c>
-      <c r="B16" s="215"/>
-      <c r="C16" s="216"/>
+      <c r="B16" s="241"/>
+      <c r="C16" s="242"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="69" t="s">
@@ -8200,30 +8345,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="220" t="s">
+      <c r="A1" s="246" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="220"/>
-      <c r="C1" s="220"/>
-      <c r="D1" s="220"/>
-      <c r="G1" s="217" t="s">
+      <c r="B1" s="246"/>
+      <c r="C1" s="246"/>
+      <c r="D1" s="246"/>
+      <c r="G1" s="243" t="s">
         <v>63</v>
       </c>
-      <c r="H1" s="218"/>
-      <c r="I1" s="219"/>
-      <c r="J1" s="217" t="s">
+      <c r="H1" s="244"/>
+      <c r="I1" s="245"/>
+      <c r="J1" s="243" t="s">
         <v>76</v>
       </c>
-      <c r="K1" s="218"/>
-      <c r="L1" s="219"/>
+      <c r="K1" s="244"/>
+      <c r="L1" s="245"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="222" t="s">
+      <c r="A2" s="248" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="222"/>
-      <c r="C2" s="222"/>
-      <c r="D2" s="222"/>
+      <c r="B2" s="248"/>
+      <c r="C2" s="248"/>
+      <c r="D2" s="248"/>
       <c r="G2" s="41"/>
       <c r="H2" s="30"/>
       <c r="I2" s="42"/>
@@ -8297,10 +8442,10 @@
       <c r="A5" t="s">
         <v>50</v>
       </c>
-      <c r="B5" s="221" t="s">
+      <c r="B5" s="247" t="s">
         <v>55</v>
       </c>
-      <c r="C5" s="221"/>
+      <c r="C5" s="247"/>
       <c r="D5" t="s">
         <v>57</v>
       </c>
@@ -8378,12 +8523,12 @@
       </c>
     </row>
     <row r="8" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="223" t="s">
+      <c r="A8" s="249" t="s">
         <v>77</v>
       </c>
-      <c r="B8" s="223"/>
-      <c r="C8" s="223"/>
-      <c r="D8" s="223"/>
+      <c r="B8" s="249"/>
+      <c r="C8" s="249"/>
+      <c r="D8" s="249"/>
       <c r="G8" s="35" t="s">
         <v>61</v>
       </c>
@@ -8432,11 +8577,11 @@
       <c r="B10" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="G10" s="217" t="s">
+      <c r="G10" s="243" t="s">
         <v>71</v>
       </c>
-      <c r="H10" s="218"/>
-      <c r="I10" s="219"/>
+      <c r="H10" s="244"/>
+      <c r="I10" s="245"/>
       <c r="J10" s="26" t="s">
         <v>80</v>
       </c>
@@ -9287,11 +9432,11 @@
         <f t="shared" si="5"/>
         <v>-0.35899237254115235</v>
       </c>
-      <c r="J10" s="230" t="s">
+      <c r="J10" s="256" t="s">
         <v>177</v>
       </c>
-      <c r="K10" s="231"/>
-      <c r="L10" s="232"/>
+      <c r="K10" s="257"/>
+      <c r="L10" s="258"/>
       <c r="M10" s="104">
         <f>AVERAGE(O4:O9)</f>
         <v>34.986157058507771</v>
@@ -9333,11 +9478,11 @@
         <f t="shared" si="5"/>
         <v>-0.20421802935010547</v>
       </c>
-      <c r="J11" s="233" t="s">
+      <c r="J11" s="259" t="s">
         <v>178</v>
       </c>
-      <c r="K11" s="234"/>
-      <c r="L11" s="235"/>
+      <c r="K11" s="260"/>
+      <c r="L11" s="261"/>
       <c r="M11" s="104">
         <f>_xlfn.STDEV.S(O4:O9)</f>
         <v>6.1951361778922536</v>
@@ -9349,12 +9494,12 @@
       <c r="R11" s="104"/>
     </row>
     <row r="12" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A12" s="224" t="s">
+      <c r="A12" s="250" t="s">
         <v>177</v>
       </c>
-      <c r="B12" s="225"/>
-      <c r="C12" s="225"/>
-      <c r="D12" s="226"/>
+      <c r="B12" s="251"/>
+      <c r="C12" s="251"/>
+      <c r="D12" s="252"/>
       <c r="E12" s="100">
         <f>G12</f>
         <v>19.262577334038216</v>
@@ -9365,11 +9510,11 @@
         <v>19.262577334038216</v>
       </c>
       <c r="H12" s="3"/>
-      <c r="J12" s="236" t="s">
+      <c r="J12" s="262" t="s">
         <v>179</v>
       </c>
-      <c r="K12" s="237"/>
-      <c r="L12" s="238"/>
+      <c r="K12" s="263"/>
+      <c r="L12" s="264"/>
       <c r="M12" s="104">
         <f>M11/SQRT(6)</f>
         <v>2.529153753815343</v>
@@ -9381,12 +9526,12 @@
       <c r="R12" s="104"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A13" s="224" t="s">
+      <c r="A13" s="250" t="s">
         <v>178</v>
       </c>
-      <c r="B13" s="225"/>
-      <c r="C13" s="225"/>
-      <c r="D13" s="226"/>
+      <c r="B13" s="251"/>
+      <c r="C13" s="251"/>
+      <c r="D13" s="252"/>
       <c r="E13" s="100">
         <f>_xlfn.STDEV.S(G2:G11)</f>
         <v>1.5273668152842281</v>
@@ -9396,12 +9541,12 @@
       <c r="H13" s="3"/>
     </row>
     <row r="14" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="227" t="s">
+      <c r="A14" s="253" t="s">
         <v>179</v>
       </c>
-      <c r="B14" s="228"/>
-      <c r="C14" s="228"/>
-      <c r="D14" s="229"/>
+      <c r="B14" s="254"/>
+      <c r="C14" s="254"/>
+      <c r="D14" s="255"/>
       <c r="E14" s="101">
         <f>E13/SQRT(10)</f>
         <v>0.48299579588558378</v>
@@ -9439,37 +9584,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="244" t="s">
+      <c r="B1" s="270" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="245"/>
-      <c r="D1" s="246"/>
-      <c r="E1" s="241" t="s">
+      <c r="C1" s="271"/>
+      <c r="D1" s="272"/>
+      <c r="E1" s="267" t="s">
         <v>48</v>
       </c>
-      <c r="F1" s="242"/>
-      <c r="G1" s="243"/>
-      <c r="H1" s="244" t="s">
+      <c r="F1" s="268"/>
+      <c r="G1" s="269"/>
+      <c r="H1" s="270" t="s">
         <v>158</v>
       </c>
-      <c r="I1" s="245"/>
-      <c r="J1" s="246"/>
-      <c r="K1" s="244" t="s">
+      <c r="I1" s="271"/>
+      <c r="J1" s="272"/>
+      <c r="K1" s="270" t="s">
         <v>47</v>
       </c>
-      <c r="L1" s="245"/>
-      <c r="M1" s="245"/>
-      <c r="N1" s="244" t="s">
+      <c r="L1" s="271"/>
+      <c r="M1" s="271"/>
+      <c r="N1" s="270" t="s">
         <v>157</v>
       </c>
-      <c r="O1" s="245"/>
-      <c r="P1" s="246"/>
+      <c r="O1" s="271"/>
+      <c r="P1" s="272"/>
     </row>
     <row r="2" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B2" s="247" t="s">
+      <c r="B2" s="273" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="248"/>
+      <c r="C2" s="274"/>
       <c r="D2" s="89">
         <v>7</v>
       </c>
@@ -9511,10 +9656,10 @@
       </c>
     </row>
     <row r="3" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B3" s="249" t="s">
+      <c r="B3" s="275" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="250"/>
+      <c r="C3" s="276"/>
       <c r="D3" s="20">
         <v>-12</v>
       </c>
@@ -9548,10 +9693,10 @@
       <c r="P3" s="47"/>
     </row>
     <row r="4" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="239" t="s">
+      <c r="B4" s="265" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="240"/>
+      <c r="C4" s="266"/>
       <c r="D4" s="21">
         <f>SQRT(POWER(D2,2)+POWER(D3,2))</f>
         <v>13.892443989449804</v>
@@ -9862,21 +10007,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="251" t="s">
+      <c r="A1" s="277" t="s">
         <v>213</v>
       </c>
-      <c r="B1" s="252"/>
-      <c r="C1" s="253"/>
-      <c r="D1" s="251" t="s">
+      <c r="B1" s="278"/>
+      <c r="C1" s="279"/>
+      <c r="D1" s="277" t="s">
         <v>212</v>
       </c>
-      <c r="E1" s="252"/>
-      <c r="F1" s="253"/>
-      <c r="G1" s="251" t="s">
+      <c r="E1" s="278"/>
+      <c r="F1" s="279"/>
+      <c r="G1" s="277" t="s">
         <v>211</v>
       </c>
-      <c r="H1" s="252"/>
-      <c r="I1" s="253"/>
+      <c r="H1" s="278"/>
+      <c r="I1" s="279"/>
     </row>
     <row r="2" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="139"/>
@@ -10123,21 +10268,21 @@
       </c>
     </row>
     <row r="12" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="251" t="s">
+      <c r="A12" s="277" t="s">
         <v>201</v>
       </c>
-      <c r="B12" s="252"/>
-      <c r="C12" s="253"/>
-      <c r="D12" s="251" t="s">
+      <c r="B12" s="278"/>
+      <c r="C12" s="279"/>
+      <c r="D12" s="277" t="s">
         <v>200</v>
       </c>
-      <c r="E12" s="252"/>
-      <c r="F12" s="253"/>
-      <c r="G12" s="251" t="s">
+      <c r="E12" s="278"/>
+      <c r="F12" s="279"/>
+      <c r="G12" s="277" t="s">
         <v>199</v>
       </c>
-      <c r="H12" s="252"/>
-      <c r="I12" s="253"/>
+      <c r="H12" s="278"/>
+      <c r="I12" s="279"/>
     </row>
     <row r="13" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="139"/>
@@ -10354,31 +10499,31 @@
       <c r="O1" s="191"/>
     </row>
     <row r="2" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="254" t="s">
+      <c r="A2" s="280" t="s">
         <v>233</v>
       </c>
-      <c r="B2" s="255"/>
-      <c r="C2" s="256"/>
-      <c r="D2" s="257" t="s">
+      <c r="B2" s="281"/>
+      <c r="C2" s="282"/>
+      <c r="D2" s="283" t="s">
         <v>234</v>
       </c>
-      <c r="E2" s="257"/>
-      <c r="F2" s="258"/>
-      <c r="G2" s="254" t="s">
+      <c r="E2" s="283"/>
+      <c r="F2" s="284"/>
+      <c r="G2" s="280" t="s">
         <v>235</v>
       </c>
-      <c r="H2" s="255"/>
-      <c r="I2" s="256"/>
-      <c r="J2" s="254" t="s">
+      <c r="H2" s="281"/>
+      <c r="I2" s="282"/>
+      <c r="J2" s="280" t="s">
         <v>236</v>
       </c>
-      <c r="K2" s="255"/>
-      <c r="L2" s="256"/>
-      <c r="M2" s="254" t="s">
+      <c r="K2" s="281"/>
+      <c r="L2" s="282"/>
+      <c r="M2" s="280" t="s">
         <v>237</v>
       </c>
-      <c r="N2" s="255"/>
-      <c r="O2" s="256"/>
+      <c r="N2" s="281"/>
+      <c r="O2" s="282"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="190" t="s">
@@ -10386,25 +10531,25 @@
       </c>
       <c r="B3" s="189"/>
       <c r="C3" s="154"/>
-      <c r="D3" s="259" t="s">
+      <c r="D3" s="285" t="s">
         <v>238</v>
       </c>
-      <c r="E3" s="260"/>
+      <c r="E3" s="286"/>
       <c r="F3" s="153"/>
-      <c r="G3" s="261" t="s">
+      <c r="G3" s="287" t="s">
         <v>238</v>
       </c>
-      <c r="H3" s="262"/>
+      <c r="H3" s="288"/>
       <c r="I3" s="155"/>
-      <c r="J3" s="261" t="s">
+      <c r="J3" s="287" t="s">
         <v>238</v>
       </c>
-      <c r="K3" s="262"/>
+      <c r="K3" s="288"/>
       <c r="L3" s="154"/>
-      <c r="M3" s="261" t="s">
+      <c r="M3" s="287" t="s">
         <v>238</v>
       </c>
-      <c r="N3" s="262"/>
+      <c r="N3" s="288"/>
       <c r="O3" s="154"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
@@ -10527,18 +10672,18 @@
         <v>0.6</v>
       </c>
       <c r="C7" s="154"/>
-      <c r="D7" s="255" t="s">
+      <c r="D7" s="281" t="s">
         <v>248</v>
       </c>
-      <c r="E7" s="268"/>
+      <c r="E7" s="294"/>
       <c r="F7" s="181">
         <f>E8</f>
         <v>280</v>
       </c>
-      <c r="G7" s="263" t="s">
+      <c r="G7" s="289" t="s">
         <v>249</v>
       </c>
-      <c r="H7" s="264"/>
+      <c r="H7" s="290"/>
       <c r="I7" s="186">
         <f>H8/1000</f>
         <v>156.36435185185184</v>
@@ -10550,20 +10695,20 @@
         <v>1.1200000000000001</v>
       </c>
       <c r="L7" s="154"/>
-      <c r="M7" s="263" t="s">
+      <c r="M7" s="289" t="s">
         <v>248</v>
       </c>
-      <c r="N7" s="264"/>
+      <c r="N7" s="290"/>
       <c r="O7" s="181">
         <f>N8</f>
         <v>3.7</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="263" t="s">
+      <c r="A8" s="289" t="s">
         <v>248</v>
       </c>
-      <c r="B8" s="264"/>
+      <c r="B8" s="290"/>
       <c r="C8" s="182">
         <f>B9</f>
         <v>-98</v>
@@ -10584,10 +10729,10 @@
         <v>156364.35185185182</v>
       </c>
       <c r="I8" s="155"/>
-      <c r="J8" s="263" t="s">
+      <c r="J8" s="289" t="s">
         <v>248</v>
       </c>
-      <c r="K8" s="264"/>
+      <c r="K8" s="290"/>
       <c r="L8" s="181">
         <f>K9</f>
         <v>1.6424999999999996</v>
@@ -10610,18 +10755,18 @@
         <v>-98</v>
       </c>
       <c r="C9" s="154"/>
-      <c r="D9" s="267" t="s">
+      <c r="D9" s="293" t="s">
         <v>254</v>
       </c>
-      <c r="E9" s="264"/>
+      <c r="E9" s="290"/>
       <c r="F9" s="185">
         <f>SUM(E10:E13)</f>
         <v>280</v>
       </c>
-      <c r="G9" s="263" t="s">
+      <c r="G9" s="289" t="s">
         <v>255</v>
       </c>
-      <c r="H9" s="264"/>
+      <c r="H9" s="290"/>
       <c r="I9" s="184">
         <f>H10/1000</f>
         <v>-156.36435185185186</v>
@@ -10634,20 +10779,20 @@
         <v>1.6424999999999996</v>
       </c>
       <c r="L9" s="183"/>
-      <c r="M9" s="263" t="s">
+      <c r="M9" s="289" t="s">
         <v>254</v>
       </c>
-      <c r="N9" s="264"/>
+      <c r="N9" s="290"/>
       <c r="O9" s="181">
         <f>N10</f>
         <v>3.7</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="263" t="s">
+      <c r="A10" s="289" t="s">
         <v>254</v>
       </c>
-      <c r="B10" s="264"/>
+      <c r="B10" s="290"/>
       <c r="C10" s="182">
         <f>B11+B12</f>
         <v>-98</v>
@@ -10668,10 +10813,10 @@
         <v>-156364.35185185185</v>
       </c>
       <c r="I10" s="155"/>
-      <c r="J10" s="263" t="s">
+      <c r="J10" s="289" t="s">
         <v>254</v>
       </c>
-      <c r="K10" s="264"/>
+      <c r="K10" s="290"/>
       <c r="L10" s="181">
         <f>K11</f>
         <v>-1.6424999999999996</v>
@@ -10702,10 +10847,10 @@
         <v>23.999999999999993</v>
       </c>
       <c r="F11" s="154"/>
-      <c r="G11" s="265" t="s">
+      <c r="G11" s="291" t="s">
         <v>261</v>
       </c>
-      <c r="H11" s="266"/>
+      <c r="H11" s="292"/>
       <c r="I11" s="179"/>
       <c r="J11" s="178" t="s">
         <v>258</v>
@@ -10715,10 +10860,10 @@
         <v>-1.6424999999999996</v>
       </c>
       <c r="L11" s="154"/>
-      <c r="M11" s="265" t="s">
+      <c r="M11" s="291" t="s">
         <v>261</v>
       </c>
-      <c r="N11" s="266"/>
+      <c r="N11" s="292"/>
       <c r="O11" s="154"/>
     </row>
     <row r="12" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10746,10 +10891,10 @@
         <v>-7.5854700854700852</v>
       </c>
       <c r="I12" s="155"/>
-      <c r="J12" s="265" t="s">
+      <c r="J12" s="291" t="s">
         <v>261</v>
       </c>
-      <c r="K12" s="266"/>
+      <c r="K12" s="292"/>
       <c r="L12" s="154"/>
       <c r="M12" s="160" t="s">
         <v>264</v>
@@ -10761,10 +10906,10 @@
       <c r="O12" s="151"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="263" t="s">
+      <c r="A13" s="289" t="s">
         <v>261</v>
       </c>
-      <c r="B13" s="264"/>
+      <c r="B13" s="290"/>
       <c r="C13" s="154"/>
       <c r="D13" s="173" t="s">
         <v>265</v>
@@ -10803,10 +10948,10 @@
         <v>2.2094270302401799</v>
       </c>
       <c r="C14" s="154"/>
-      <c r="D14" s="267" t="s">
+      <c r="D14" s="293" t="s">
         <v>261</v>
       </c>
-      <c r="E14" s="264"/>
+      <c r="E14" s="290"/>
       <c r="F14" s="169"/>
       <c r="G14" s="168" t="s">
         <v>267</v>
@@ -10930,494 +11075,1300 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E841A18D-5A74-45BA-A3D3-19096B3F4A93}">
-  <dimension ref="A1:L19"/>
+  <dimension ref="A1:R55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F49" sqref="F49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="62"/>
-    <col min="4" max="4" width="9.85546875" style="62" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" style="62" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5703125" style="62" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="62" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.85546875" style="62" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" style="62" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.5703125" style="62" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.85546875" style="62" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.5703125" style="62" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17.85546875" style="62" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17" style="62" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="150" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D1" s="271" t="s">
+    <row r="1" spans="1:18" s="150" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="157"/>
+      <c r="C1" s="295" t="s">
+        <v>273</v>
+      </c>
+      <c r="D1" s="296"/>
+      <c r="E1" s="296"/>
+      <c r="F1" s="296"/>
+      <c r="G1" s="296"/>
+      <c r="H1" s="296"/>
+      <c r="I1" s="297"/>
+      <c r="J1" s="210"/>
+      <c r="K1"/>
+      <c r="L1"/>
+      <c r="M1"/>
+      <c r="N1"/>
+      <c r="O1"/>
+      <c r="P1"/>
+      <c r="Q1"/>
+      <c r="R1"/>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2" s="196" t="s">
+        <v>271</v>
+      </c>
+      <c r="B2">
+        <f>4.6/1000</f>
+        <v>4.5999999999999999E-3</v>
+      </c>
+      <c r="C2" s="197" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="202" t="s">
+        <v>277</v>
+      </c>
+      <c r="E2" s="203" t="s">
+        <v>279</v>
+      </c>
+      <c r="F2" s="202" t="s">
+        <v>280</v>
+      </c>
+      <c r="G2" s="200" t="s">
+        <v>278</v>
+      </c>
+      <c r="H2" s="199" t="s">
         <v>274</v>
       </c>
-      <c r="E1" s="272"/>
-      <c r="F1" s="272"/>
-      <c r="G1" s="272"/>
-      <c r="H1" s="272"/>
-      <c r="I1" s="273"/>
-      <c r="J1" s="269"/>
-      <c r="K1" s="270"/>
-      <c r="L1" s="270"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="196" t="s">
-        <v>272</v>
-      </c>
-      <c r="C2" s="203" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" s="204" t="s">
-        <v>276</v>
-      </c>
-      <c r="E2" s="204" t="s">
-        <v>277</v>
-      </c>
-      <c r="F2" s="205" t="s">
+      <c r="I2" s="200" t="s">
         <v>275</v>
       </c>
-      <c r="G2" s="206" t="s">
-        <v>279</v>
-      </c>
-      <c r="H2" s="206" t="s">
-        <v>278</v>
-      </c>
-      <c r="I2" s="206" t="s">
-        <v>280</v>
-      </c>
-      <c r="J2" s="197"/>
-      <c r="K2" s="208"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J2" s="205"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="196" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B3">
         <v>38</v>
       </c>
-      <c r="C3" s="202">
+      <c r="C3" s="208">
         <v>1</v>
       </c>
-      <c r="D3" s="198">
+      <c r="D3" s="213">
         <v>14.8</v>
       </c>
-      <c r="E3" s="198">
+      <c r="E3" s="211">
         <f>B3*SIN(RADIANS(F3))</f>
         <v>14.847782882592403</v>
       </c>
-      <c r="F3" s="198">
+      <c r="F3" s="214">
         <v>23</v>
       </c>
-      <c r="G3" s="198">
+      <c r="G3" s="212">
         <f>DEGREES(ASIN(D3/B3))</f>
         <v>22.921754462892675</v>
       </c>
-      <c r="H3" s="201">
+      <c r="H3" s="219">
         <f>TAN(RADIANS(F3))</f>
         <v>0.42447481620960476</v>
       </c>
-      <c r="I3" s="201">
+      <c r="I3" s="217">
         <f>TAN(RADIANS(G3))</f>
         <v>0.4228640468163074</v>
       </c>
-      <c r="J3" s="200"/>
-      <c r="K3" s="152"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J3" s="97"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="196" t="s">
-        <v>270</v>
-      </c>
-      <c r="C4" s="202">
+        <v>289</v>
+      </c>
+      <c r="B4" s="157">
+        <v>0.38</v>
+      </c>
+      <c r="C4" s="208">
         <v>2</v>
       </c>
-      <c r="D4" s="198">
+      <c r="D4" s="214">
         <v>15.2</v>
       </c>
-      <c r="E4" s="198">
+      <c r="E4" s="212">
         <f>B3*SIN(RADIANS(F4))</f>
         <v>15.455992436880408</v>
       </c>
-      <c r="F4" s="198">
+      <c r="F4" s="214">
         <v>24</v>
       </c>
-      <c r="G4" s="198">
+      <c r="G4" s="212">
         <f>DEGREES(ASIN(D4/B3))</f>
         <v>23.578178478201828</v>
       </c>
-      <c r="H4" s="201">
-        <f t="shared" ref="H4:H8" si="0">TAN(RADIANS(F4))</f>
+      <c r="H4" s="219">
+        <f t="shared" ref="H4:H7" si="0">TAN(RADIANS(F4))</f>
         <v>0.44522868530853621</v>
       </c>
-      <c r="I4" s="201">
-        <f t="shared" ref="I4:I8" si="1">TAN(RADIANS(G4))</f>
+      <c r="I4" s="217">
+        <f t="shared" ref="I4:I7" si="1">TAN(RADIANS(G4))</f>
         <v>0.43643578047198467</v>
       </c>
-      <c r="J4" s="200"/>
-      <c r="K4" s="152"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C5" s="202">
+      <c r="J4" s="97"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B5" s="157"/>
+      <c r="C5" s="208">
         <v>3</v>
       </c>
-      <c r="D5" s="198">
+      <c r="D5" s="214">
         <v>14.5</v>
       </c>
-      <c r="E5" s="198">
+      <c r="E5" s="212">
         <f>B3*SIN(RADIANS(F5))</f>
         <v>14.235050549804656</v>
       </c>
-      <c r="F5" s="198">
+      <c r="F5" s="214">
         <v>22</v>
       </c>
-      <c r="G5" s="198">
+      <c r="G5" s="212">
         <f>DEGREES(ASIN(D5/B3))</f>
         <v>22.431520635372987</v>
       </c>
-      <c r="H5" s="201">
+      <c r="H5" s="219">
         <f t="shared" si="0"/>
         <v>0.40402622583515679</v>
       </c>
-      <c r="I5" s="201">
+      <c r="I5" s="217">
         <f t="shared" si="1"/>
         <v>0.41281400194595419</v>
       </c>
-      <c r="J5" s="200"/>
-      <c r="K5" s="152"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C6" s="202">
+      <c r="J5" s="97"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B6" s="157"/>
+      <c r="C6" s="208">
         <v>4</v>
       </c>
-      <c r="D6" s="198">
+      <c r="D6" s="214">
         <v>16.2</v>
       </c>
-      <c r="E6" s="198">
+      <c r="E6" s="212">
         <f>B3*SIN(RADIANS(F6))</f>
         <v>16.658103577984942</v>
       </c>
-      <c r="F6" s="198">
+      <c r="F6" s="214">
         <v>26</v>
       </c>
-      <c r="G6" s="198">
+      <c r="G6" s="212">
         <f>DEGREES(ASIN(D6/B3))</f>
         <v>25.233977053477833</v>
       </c>
-      <c r="H6" s="201">
+      <c r="H6" s="219">
         <f t="shared" si="0"/>
         <v>0.48773258856586144</v>
       </c>
-      <c r="I6" s="201">
+      <c r="I6" s="217">
         <f t="shared" si="1"/>
         <v>0.47128880589568251</v>
       </c>
-      <c r="J6" s="200"/>
-      <c r="K6" s="152"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C7" s="202">
+      <c r="J6" s="97"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B7" s="157"/>
+      <c r="C7" s="208">
         <v>5</v>
       </c>
-      <c r="D7" s="198">
+      <c r="D7" s="214">
         <v>16</v>
       </c>
-      <c r="E7" s="198">
+      <c r="E7" s="212">
         <f>B3*SIN(RADIANS(F7))</f>
         <v>16.059493946146578</v>
       </c>
-      <c r="F7" s="198">
+      <c r="F7" s="214">
         <v>25</v>
       </c>
-      <c r="G7" s="198">
+      <c r="G7" s="212">
         <f>DEGREES(ASIN(D7/B3))</f>
         <v>24.901062370366958</v>
       </c>
-      <c r="H7" s="201">
+      <c r="H7" s="219">
         <f t="shared" si="0"/>
         <v>0.46630765815499858</v>
       </c>
-      <c r="I7" s="201">
+      <c r="I7" s="217">
         <f t="shared" si="1"/>
         <v>0.46420708254852749</v>
       </c>
-      <c r="J7" s="200"/>
-      <c r="K7" s="152"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C8" s="202" t="s">
-        <v>273</v>
-      </c>
-      <c r="D8" s="199">
+      <c r="J7" s="97"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B8" s="157"/>
+      <c r="C8" s="209" t="s">
+        <v>272</v>
+      </c>
+      <c r="D8" s="215">
         <f>AVERAGE(D3:D7)</f>
         <v>15.34</v>
       </c>
-      <c r="E8" s="199">
+      <c r="E8" s="216">
         <f>AVERAGE(E3:E7)</f>
         <v>15.451284678681796</v>
       </c>
-      <c r="F8" s="199">
+      <c r="F8" s="215">
         <f>AVERAGE(F3:F7)</f>
         <v>24</v>
       </c>
-      <c r="G8" s="199">
+      <c r="G8" s="216">
         <f t="shared" ref="G8:I8" si="2">AVERAGE(G3:G7)</f>
         <v>23.813298600062456</v>
       </c>
-      <c r="H8" s="199">
+      <c r="H8" s="220">
         <f t="shared" si="2"/>
         <v>0.44555399481483154</v>
       </c>
-      <c r="I8" s="199">
+      <c r="I8" s="218">
         <f t="shared" si="2"/>
         <v>0.4415219435356913</v>
       </c>
-      <c r="J8" s="209"/>
-      <c r="K8" s="198"/>
-    </row>
-    <row r="9" spans="1:12" s="150" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C9" s="203" t="s">
+      <c r="J8" s="206"/>
+    </row>
+    <row r="9" spans="1:18" s="150" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="157"/>
+      <c r="C9" s="197" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="274" t="str">
+      <c r="D9" s="299" t="str">
         <f>"Altura: " &amp; ROUND(AVERAGE(D8:E8),3)</f>
         <v>Altura: 15.396</v>
       </c>
-      <c r="E9" s="250"/>
-      <c r="F9" s="274" t="str">
+      <c r="E9" s="300"/>
+      <c r="F9" s="299" t="str">
         <f>"Ângulo: " &amp; ROUND(AVERAGE(F8:G8),3)</f>
         <v>Ângulo: 23.907</v>
       </c>
-      <c r="G9" s="250"/>
-      <c r="H9" s="274" t="str">
+      <c r="G9" s="300"/>
+      <c r="H9" s="303" t="str">
         <f>"µest: " &amp; ROUND(AVERAGE(H8:I8),3)</f>
         <v>µest: 0.444</v>
       </c>
-      <c r="I9" s="250"/>
-      <c r="J9" s="198"/>
-      <c r="K9" s="198"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C10" s="276"/>
-      <c r="D10" s="275"/>
-      <c r="E10" s="275"/>
-      <c r="F10" s="275"/>
-      <c r="G10" s="275"/>
-      <c r="H10" s="275"/>
-      <c r="I10" s="275"/>
-      <c r="J10" s="152"/>
-      <c r="K10" s="152"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B11" s="152"/>
-      <c r="C11" s="150"/>
-      <c r="D11" s="271" t="s">
+      <c r="I9" s="302"/>
+      <c r="J9" s="207"/>
+      <c r="K9"/>
+      <c r="L9"/>
+      <c r="M9"/>
+      <c r="N9"/>
+      <c r="O9"/>
+      <c r="P9"/>
+      <c r="Q9"/>
+      <c r="R9"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B10" s="157"/>
+      <c r="C10" s="204"/>
+      <c r="D10" s="298"/>
+      <c r="E10" s="298"/>
+      <c r="F10" s="298"/>
+      <c r="G10" s="298"/>
+      <c r="H10" s="298"/>
+      <c r="I10" s="298"/>
+      <c r="J10" s="155"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B11" s="155"/>
+      <c r="C11" s="295" t="s">
+        <v>276</v>
+      </c>
+      <c r="D11" s="296"/>
+      <c r="E11" s="296"/>
+      <c r="F11" s="296"/>
+      <c r="G11" s="296"/>
+      <c r="H11" s="296"/>
+      <c r="I11" s="297"/>
+      <c r="J11" s="157"/>
+      <c r="L11" s="152"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B12" s="155"/>
+      <c r="C12" s="197" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="202" t="s">
+        <v>277</v>
+      </c>
+      <c r="E12" s="203" t="s">
+        <v>279</v>
+      </c>
+      <c r="F12" s="202" t="s">
+        <v>280</v>
+      </c>
+      <c r="G12" s="200" t="s">
+        <v>278</v>
+      </c>
+      <c r="H12" s="199" t="s">
+        <v>274</v>
+      </c>
+      <c r="I12" s="200" t="s">
+        <v>275</v>
+      </c>
+      <c r="J12" s="157"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B13" s="155"/>
+      <c r="C13" s="208">
+        <v>1</v>
+      </c>
+      <c r="D13" s="213">
+        <v>21.1</v>
+      </c>
+      <c r="E13" s="221">
+        <f>B3*SIN(RADIANS(F13))</f>
+        <v>20.696283330571028</v>
+      </c>
+      <c r="F13" s="213">
+        <v>33</v>
+      </c>
+      <c r="G13" s="211">
+        <f>DEGREES(ASIN(D13/B3))</f>
+        <v>33.728842355172453</v>
+      </c>
+      <c r="H13" s="219">
+        <f>TAN(RADIANS(F13))</f>
+        <v>0.64940759319751062</v>
+      </c>
+      <c r="I13" s="217">
+        <f>TAN(RADIANS(G13))</f>
+        <v>0.66764463356012493</v>
+      </c>
+      <c r="J13" s="157"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B14" s="155"/>
+      <c r="C14" s="208">
+        <v>2</v>
+      </c>
+      <c r="D14" s="214">
+        <v>21.3</v>
+      </c>
+      <c r="E14" s="222">
+        <f>B3*SIN(RADIANS(F14))</f>
+        <v>21.795904581339748</v>
+      </c>
+      <c r="F14" s="214">
+        <v>35</v>
+      </c>
+      <c r="G14" s="212">
+        <f>DEGREES(ASIN(D14/B3))</f>
+        <v>34.092203803807195</v>
+      </c>
+      <c r="H14" s="219">
+        <f t="shared" ref="H14:H17" si="3">TAN(RADIANS(F14))</f>
+        <v>0.70020753820970971</v>
+      </c>
+      <c r="I14" s="217">
+        <f t="shared" ref="I14:I17" si="4">TAN(RADIANS(G14))</f>
+        <v>0.67685247480673205</v>
+      </c>
+      <c r="J14" s="157"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B15" s="155"/>
+      <c r="C15" s="208">
+        <v>3</v>
+      </c>
+      <c r="D15" s="214">
+        <v>20</v>
+      </c>
+      <c r="E15" s="222">
+        <f>B3*SIN(RADIANS(F15))</f>
+        <v>20.417385117179307</v>
+      </c>
+      <c r="F15" s="214">
+        <v>32.5</v>
+      </c>
+      <c r="G15" s="212">
+        <f>DEGREES(ASIN(D15/B3))</f>
+        <v>31.756863859297127</v>
+      </c>
+      <c r="H15" s="219">
+        <f t="shared" si="3"/>
+        <v>0.63707026080749318</v>
+      </c>
+      <c r="I15" s="217">
+        <f t="shared" si="4"/>
+        <v>0.61898446059017287</v>
+      </c>
+      <c r="J15" s="157"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B16" s="155"/>
+      <c r="C16" s="208">
+        <v>4</v>
+      </c>
+      <c r="D16" s="214">
+        <v>18</v>
+      </c>
+      <c r="E16" s="222">
+        <f>B3*SIN(RADIANS(F16))</f>
+        <v>18.422765569360809</v>
+      </c>
+      <c r="F16" s="214">
+        <v>29</v>
+      </c>
+      <c r="G16" s="212">
+        <f>DEGREES(ASIN(D16/B3))</f>
+        <v>28.273713631365041</v>
+      </c>
+      <c r="H16" s="219">
+        <f t="shared" si="3"/>
+        <v>0.55430905145276899</v>
+      </c>
+      <c r="I16" s="217">
+        <f t="shared" si="4"/>
+        <v>0.53785287420047712</v>
+      </c>
+      <c r="J16" s="157"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B17" s="155"/>
+      <c r="C17" s="208">
+        <v>5</v>
+      </c>
+      <c r="D17" s="223">
+        <v>20.8</v>
+      </c>
+      <c r="E17" s="224">
+        <f>B3*SIN(RADIANS(F17))</f>
+        <v>20.696283330571028</v>
+      </c>
+      <c r="F17" s="223">
+        <v>33</v>
+      </c>
+      <c r="G17" s="225">
+        <f>DEGREES(ASIN(D17/B3))</f>
+        <v>33.186662304402951</v>
+      </c>
+      <c r="H17" s="219">
+        <f t="shared" si="3"/>
+        <v>0.64940759319751062</v>
+      </c>
+      <c r="I17" s="217">
+        <f t="shared" si="4"/>
+        <v>0.65404924469903492</v>
+      </c>
+      <c r="J17" s="157"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B18" s="157"/>
+      <c r="C18" s="209" t="s">
+        <v>272</v>
+      </c>
+      <c r="D18" s="215">
+        <f>AVERAGE(D13:D17)</f>
+        <v>20.240000000000002</v>
+      </c>
+      <c r="E18" s="226">
+        <f>AVERAGE(E13:E17)</f>
+        <v>20.405724385804383</v>
+      </c>
+      <c r="F18" s="215">
+        <f>AVERAGE(F13:F17)</f>
+        <v>32.5</v>
+      </c>
+      <c r="G18" s="216">
+        <f t="shared" ref="G18" si="5">AVERAGE(G13:G17)</f>
+        <v>32.207657190808952</v>
+      </c>
+      <c r="H18" s="220">
+        <f t="shared" ref="H18" si="6">AVERAGE(H13:H17)</f>
+        <v>0.63808040737299865</v>
+      </c>
+      <c r="I18" s="218">
+        <f t="shared" ref="I18" si="7">AVERAGE(I13:I17)</f>
+        <v>0.63107673757130844</v>
+      </c>
+      <c r="J18" s="157"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B19" s="157"/>
+      <c r="C19" s="197" t="s">
+        <v>29</v>
+      </c>
+      <c r="D19" s="299" t="str">
+        <f>"Altura: " &amp; ROUND(AVERAGE(D18:E18),2)</f>
+        <v>Altura: 20.32</v>
+      </c>
+      <c r="E19" s="300"/>
+      <c r="F19" s="299" t="str">
+        <f>"Ângulo: " &amp; ROUND(AVERAGE(F18:G18),2)</f>
+        <v>Ângulo: 32.35</v>
+      </c>
+      <c r="G19" s="300"/>
+      <c r="H19" s="301" t="str">
+        <f>"µest: " &amp; ROUND(AVERAGE(H18:I18),3)</f>
+        <v>µest: 0.635</v>
+      </c>
+      <c r="I19" s="302"/>
+      <c r="J19" s="157"/>
+    </row>
+    <row r="20" spans="1:12" s="150" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="304"/>
+      <c r="B20" s="304"/>
+      <c r="C20" s="304"/>
+      <c r="D20" s="304"/>
+      <c r="E20" s="304"/>
+      <c r="F20" s="304"/>
+      <c r="G20" s="304"/>
+      <c r="H20" s="304"/>
+      <c r="I20" s="304"/>
+      <c r="J20" s="304"/>
+      <c r="K20" s="304"/>
+      <c r="L20" s="304"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B21" s="157"/>
+      <c r="C21" s="295" t="s">
+        <v>273</v>
+      </c>
+      <c r="D21" s="296"/>
+      <c r="E21" s="296"/>
+      <c r="F21" s="296"/>
+      <c r="G21" s="296"/>
+      <c r="H21" s="297"/>
+      <c r="I21"/>
+      <c r="L21" s="157"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C22" s="197" t="s">
+        <v>14</v>
+      </c>
+      <c r="D22" s="202" t="s">
+        <v>277</v>
+      </c>
+      <c r="E22" s="227" t="s">
+        <v>278</v>
+      </c>
+      <c r="F22" s="227" t="s">
         <v>281</v>
       </c>
-      <c r="E11" s="272"/>
-      <c r="F11" s="272"/>
-      <c r="G11" s="272"/>
-      <c r="H11" s="272"/>
-      <c r="I11" s="273"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B12" s="152"/>
-      <c r="C12" s="203" t="s">
+      <c r="G22" s="198" t="s">
+        <v>283</v>
+      </c>
+      <c r="H22" s="227" t="s">
+        <v>282</v>
+      </c>
+      <c r="I22"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C23" s="208">
+        <v>1</v>
+      </c>
+      <c r="D23" s="214">
+        <v>18.5</v>
+      </c>
+      <c r="E23" s="229">
+        <f>DEGREES(ASIN(D23/B3))</f>
+        <v>29.133232783996171</v>
+      </c>
+      <c r="F23" s="228">
+        <v>0.76</v>
+      </c>
+      <c r="G23" s="212">
+        <f>(2*B4)/(F23 ^2)</f>
+        <v>1.3157894736842106</v>
+      </c>
+      <c r="H23" s="212">
+        <f>F23*G23</f>
+        <v>1</v>
+      </c>
+      <c r="I23"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C24" s="208">
+        <v>2</v>
+      </c>
+      <c r="D24" s="214">
+        <v>21.2</v>
+      </c>
+      <c r="E24" s="230">
+        <f>DEGREES(ASIN(D24/B3))</f>
+        <v>33.910329442752342</v>
+      </c>
+      <c r="F24" s="228">
+        <v>0.66</v>
+      </c>
+      <c r="G24" s="212">
+        <f>(2*B4)/(F24 ^2)</f>
+        <v>1.7447199265381081</v>
+      </c>
+      <c r="H24" s="212">
+        <f t="shared" ref="H24:H27" si="8">F24*G24</f>
+        <v>1.1515151515151514</v>
+      </c>
+      <c r="I24"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C25" s="208">
+        <v>3</v>
+      </c>
+      <c r="D25" s="214">
+        <v>23.6</v>
+      </c>
+      <c r="E25" s="230">
+        <f>DEGREES(ASIN(D25/B3))</f>
+        <v>38.393044019207025</v>
+      </c>
+      <c r="F25" s="228">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="G25" s="212">
+        <f>(2*B4)/(F25 ^2)</f>
+        <v>2.5123966942148757</v>
+      </c>
+      <c r="H25" s="212">
+        <f t="shared" si="8"/>
+        <v>1.3818181818181818</v>
+      </c>
+      <c r="I25"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C26" s="208">
+        <v>4</v>
+      </c>
+      <c r="D26" s="214">
+        <v>26.2</v>
+      </c>
+      <c r="E26" s="230">
+        <f>DEGREES(ASIN(D26/B3))</f>
+        <v>43.588460841444707</v>
+      </c>
+      <c r="F26" s="228">
+        <v>0.47</v>
+      </c>
+      <c r="G26" s="212">
+        <f>(2*B4)/(F26 ^2)</f>
+        <v>3.440470801267542</v>
+      </c>
+      <c r="H26" s="212">
+        <f t="shared" si="8"/>
+        <v>1.6170212765957446</v>
+      </c>
+      <c r="I26"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C27" s="208">
+        <v>5</v>
+      </c>
+      <c r="D27" s="214">
+        <v>28</v>
+      </c>
+      <c r="E27" s="230">
+        <f>DEGREES(ASIN(D27/B3))</f>
+        <v>47.463101637013786</v>
+      </c>
+      <c r="F27" s="228">
+        <v>0.39</v>
+      </c>
+      <c r="G27" s="212">
+        <f>(2*B4)/(F27 ^2)</f>
+        <v>4.9967126890203808</v>
+      </c>
+      <c r="H27" s="212">
+        <f t="shared" si="8"/>
+        <v>1.9487179487179487</v>
+      </c>
+      <c r="I27"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C28" s="197" t="s">
+        <v>272</v>
+      </c>
+      <c r="D28" s="201" t="str">
+        <f>"Altura: " &amp; ROUND(AVERAGE(D23:D27),2)</f>
+        <v>Altura: 23.5</v>
+      </c>
+      <c r="E28" s="197" t="str">
+        <f>"Ângulo: " &amp; ROUND(AVERAGE(E23:E27),2)</f>
+        <v>Ângulo: 38.5</v>
+      </c>
+      <c r="F28" s="197" t="str">
+        <f>"Tempo: " &amp; ROUND(AVERAGE(F23:F27),2)</f>
+        <v>Tempo: 0.57</v>
+      </c>
+      <c r="G28" s="198" t="str">
+        <f>"Aceleração: " &amp; ROUND(AVERAGE(G23:G27),2)</f>
+        <v>Aceleração: 2.8</v>
+      </c>
+      <c r="H28" s="201" t="str">
+        <f>"Velocidade: " &amp; ROUND(AVERAGE(H23:H27),2)</f>
+        <v>Velocidade: 1.42</v>
+      </c>
+      <c r="I28" s="306"/>
+      <c r="J28" s="152"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C29" s="204"/>
+      <c r="D29" s="298"/>
+      <c r="E29" s="298"/>
+      <c r="F29" s="298"/>
+      <c r="G29" s="298"/>
+      <c r="H29" s="298"/>
+      <c r="I29" s="305"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C30" s="295" t="s">
+        <v>285</v>
+      </c>
+      <c r="D30" s="296"/>
+      <c r="E30" s="296"/>
+      <c r="F30" s="296"/>
+      <c r="G30" s="296"/>
+      <c r="H30" s="297"/>
+      <c r="I30"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C31" s="197" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="207" t="s">
+      <c r="D31" s="202" t="s">
+        <v>277</v>
+      </c>
+      <c r="E31" s="227" t="s">
+        <v>278</v>
+      </c>
+      <c r="F31" s="227" t="s">
+        <v>281</v>
+      </c>
+      <c r="G31" s="198" t="s">
+        <v>283</v>
+      </c>
+      <c r="H31" s="227" t="s">
+        <v>282</v>
+      </c>
+      <c r="I31" s="306"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C32" s="208">
+        <v>1</v>
+      </c>
+      <c r="D32" s="214">
+        <v>21.8</v>
+      </c>
+      <c r="E32" s="229">
+        <f>DEGREES(ASIN(D32/B3))</f>
+        <v>35.007538636943387</v>
+      </c>
+      <c r="F32" s="228">
+        <v>0.68</v>
+      </c>
+      <c r="G32" s="212">
+        <f>(2*B4)/(F32 ^2)</f>
+        <v>1.6435986159169547</v>
+      </c>
+      <c r="H32" s="212">
+        <f>F32*G32</f>
+        <v>1.1176470588235292</v>
+      </c>
+      <c r="I32"/>
+    </row>
+    <row r="33" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C33" s="208">
+        <v>2</v>
+      </c>
+      <c r="D33" s="214">
+        <v>23.1</v>
+      </c>
+      <c r="E33" s="230">
+        <f>DEGREES(ASIN(D33/B3))</f>
+        <v>37.437433908729211</v>
+      </c>
+      <c r="F33" s="228">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="G33" s="212">
+        <f>(2*B4)/(F33 ^2)</f>
+        <v>2.4234693877551017</v>
+      </c>
+      <c r="H33" s="212">
+        <f t="shared" ref="H33:H35" si="9">F33*G33</f>
+        <v>1.357142857142857</v>
+      </c>
+      <c r="I33"/>
+    </row>
+    <row r="34" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C34" s="208">
+        <v>3</v>
+      </c>
+      <c r="D34" s="214">
+        <v>26.1</v>
+      </c>
+      <c r="E34" s="230">
+        <f>DEGREES(ASIN(D34/B3))</f>
+        <v>43.380651049602854</v>
+      </c>
+      <c r="F34" s="228">
+        <v>0.46</v>
+      </c>
+      <c r="G34" s="212">
+        <f>(2*B4)/(F34 ^2)</f>
+        <v>3.591682419659735</v>
+      </c>
+      <c r="H34" s="212">
+        <f t="shared" si="9"/>
+        <v>1.6521739130434783</v>
+      </c>
+      <c r="I34"/>
+    </row>
+    <row r="35" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C35" s="208">
+        <v>4</v>
+      </c>
+      <c r="D35" s="214">
+        <v>28.2</v>
+      </c>
+      <c r="E35" s="230">
+        <f>DEGREES(ASIN(D35/B3))</f>
+        <v>47.911061817889035</v>
+      </c>
+      <c r="F35" s="228">
+        <v>0.41</v>
+      </c>
+      <c r="G35" s="212">
+        <f>(2*B4)/(F35 ^2)</f>
+        <v>4.5211183819155272</v>
+      </c>
+      <c r="H35" s="212">
+        <f t="shared" si="9"/>
+        <v>1.8536585365853659</v>
+      </c>
+      <c r="I35"/>
+    </row>
+    <row r="36" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C36" s="208">
+        <v>5</v>
+      </c>
+      <c r="D36" s="214">
+        <v>29.5</v>
+      </c>
+      <c r="E36" s="230">
+        <f>DEGREES(ASIN(D36/B3))</f>
+        <v>50.924479349777883</v>
+      </c>
+      <c r="F36" s="228">
+        <v>0.36</v>
+      </c>
+      <c r="G36" s="212">
+        <f>(2*B4)/(F36 ^2)</f>
+        <v>5.8641975308641978</v>
+      </c>
+      <c r="H36" s="212">
+        <f>F36*G36</f>
+        <v>2.1111111111111112</v>
+      </c>
+      <c r="I36"/>
+    </row>
+    <row r="37" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C37" s="197" t="s">
+        <v>272</v>
+      </c>
+      <c r="D37" s="201" t="str">
+        <f>"Altura: " &amp; ROUND(AVERAGE(D32:D36),2)</f>
+        <v>Altura: 25.74</v>
+      </c>
+      <c r="E37" s="197" t="str">
+        <f>"Ângulo: " &amp; ROUND(AVERAGE(E32:E36),2)</f>
+        <v>Ângulo: 42.93</v>
+      </c>
+      <c r="F37" s="197" t="str">
+        <f>"Tempo: " &amp; ROUND(AVERAGE(F32:F36),2)</f>
+        <v>Tempo: 0.49</v>
+      </c>
+      <c r="G37" s="198" t="str">
+        <f>"Aceleração: " &amp; ROUND(AVERAGE(G32:G36),2)</f>
+        <v>Aceleração: 3.61</v>
+      </c>
+      <c r="H37" s="197" t="str">
+        <f>"Velocidade: " &amp; ROUND(AVERAGE(H32:H36),2)</f>
+        <v>Velocidade: 1.62</v>
+      </c>
+      <c r="I37"/>
+    </row>
+    <row r="38" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C38"/>
+      <c r="D38"/>
+      <c r="E38"/>
+      <c r="F38"/>
+      <c r="G38"/>
+      <c r="H38"/>
+      <c r="I38"/>
+    </row>
+    <row r="39" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C39" s="295" t="s">
+        <v>273</v>
+      </c>
+      <c r="D39" s="296"/>
+      <c r="E39" s="296"/>
+      <c r="F39" s="296"/>
+      <c r="G39" s="297"/>
+      <c r="H39"/>
+      <c r="I39" s="150"/>
+    </row>
+    <row r="40" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C40" s="197" t="s">
+        <v>14</v>
+      </c>
+      <c r="D40" s="202" t="s">
+        <v>284</v>
+      </c>
+      <c r="E40" s="227" t="s">
+        <v>286</v>
+      </c>
+      <c r="F40" s="227" t="s">
+        <v>287</v>
+      </c>
+      <c r="G40" s="203" t="s">
+        <v>288</v>
+      </c>
+      <c r="H40"/>
+      <c r="I40" s="150"/>
+    </row>
+    <row r="41" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C41" s="208">
+        <v>1</v>
+      </c>
+      <c r="D41" s="233">
+        <f>B2*10*(D23/100)</f>
+        <v>8.5100000000000002E-3</v>
+      </c>
+      <c r="E41" s="231">
+        <f>B2*H23 ^2/2</f>
+        <v>2.3E-3</v>
+      </c>
+      <c r="F41" s="232">
+        <f>E41-D41</f>
+        <v>-6.2100000000000002E-3</v>
+      </c>
+      <c r="G41" s="234">
+        <f>-F41/(B2*10*COS(RADIANS(E23))*B4)</f>
+        <v>0.40671691893049627</v>
+      </c>
+      <c r="H41"/>
+      <c r="I41" s="150"/>
+    </row>
+    <row r="42" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C42" s="208">
+        <v>2</v>
+      </c>
+      <c r="D42" s="233">
+        <f>B2*10*(D24/100)</f>
+        <v>9.7520000000000003E-3</v>
+      </c>
+      <c r="E42" s="232">
+        <f>B2*H24 ^2/2</f>
+        <v>3.0497704315886128E-3</v>
+      </c>
+      <c r="F42" s="232">
+        <f t="shared" ref="F42:F45" si="10">E42-D42</f>
+        <v>-6.7022295684113879E-3</v>
+      </c>
+      <c r="G42" s="234">
+        <f>-F42/(B2*10*COS(RADIANS(E24))*B4)</f>
+        <v>0.46200425305079984</v>
+      </c>
+      <c r="H42"/>
+      <c r="I42" s="150"/>
+    </row>
+    <row r="43" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C43" s="208">
+        <v>3</v>
+      </c>
+      <c r="D43" s="233">
+        <f>B2*10*(D25/100)</f>
+        <v>1.0856000000000001E-2</v>
+      </c>
+      <c r="E43" s="232">
+        <f>B2*H25 ^2/2</f>
+        <v>4.3916694214876035E-3</v>
+      </c>
+      <c r="F43" s="232">
+        <f t="shared" si="10"/>
+        <v>-6.4643305785123976E-3</v>
+      </c>
+      <c r="G43" s="234">
+        <f>-F43/(B2*10*COS(RADIANS(E25))*B4)</f>
+        <v>0.47183931405948931</v>
+      </c>
+      <c r="H43"/>
+      <c r="I43" s="150"/>
+    </row>
+    <row r="44" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C44" s="208">
+        <v>4</v>
+      </c>
+      <c r="D44" s="233">
+        <f>B2*10*(D26/100)</f>
+        <v>1.2052E-2</v>
+      </c>
+      <c r="E44" s="232">
+        <f>B2*H26 ^2/2</f>
+        <v>6.0139429606156621E-3</v>
+      </c>
+      <c r="F44" s="232">
+        <f t="shared" si="10"/>
+        <v>-6.0380570393843381E-3</v>
+      </c>
+      <c r="G44" s="234">
+        <f>-F44/(B2*10*COS(RADIANS(E26))*B4)</f>
+        <v>0.47690388678324452</v>
+      </c>
+      <c r="H44"/>
+      <c r="I44" s="150"/>
+    </row>
+    <row r="45" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C45" s="208">
+        <v>5</v>
+      </c>
+      <c r="D45" s="233">
+        <f>B2*10*(D27/100)</f>
+        <v>1.2880000000000001E-2</v>
+      </c>
+      <c r="E45" s="232">
+        <f>B2*H27 ^2/2</f>
+        <v>8.7342537804076265E-3</v>
+      </c>
+      <c r="F45" s="232">
+        <f t="shared" si="10"/>
+        <v>-4.1457462195923743E-3</v>
+      </c>
+      <c r="G45" s="234">
+        <f>-F45/(B2*10*COS(RADIANS(E27))*B4)</f>
+        <v>0.35081076681677048</v>
+      </c>
+      <c r="H45"/>
+      <c r="I45" s="150"/>
+    </row>
+    <row r="46" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C46" s="197" t="s">
+        <v>272</v>
+      </c>
+      <c r="D46" s="197" t="str">
+        <f>"En. Mec. In.: " &amp; ROUND(AVERAGE(D41:D45),2)</f>
+        <v>En. Mec. In.: 0.01</v>
+      </c>
+      <c r="E46" s="197" t="str">
+        <f>"En. Mec. Fi.: " &amp; ROUND(AVERAGE(E41:E45),2)</f>
+        <v>En. Mec. Fi.: 0</v>
+      </c>
+      <c r="F46" s="197" t="str">
+        <f>"ΔEn Mec: " &amp; ROUND(AVERAGE(F41:F45),2)</f>
+        <v>ΔEn Mec: -0.01</v>
+      </c>
+      <c r="G46" s="235" t="str">
+        <f>"μcin: " &amp; ROUND(AVERAGE(G41:G45),3)</f>
+        <v>μcin: 0.434</v>
+      </c>
+      <c r="H46"/>
+      <c r="I46" s="150"/>
+    </row>
+    <row r="47" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C47"/>
+      <c r="D47"/>
+      <c r="E47"/>
+      <c r="F47"/>
+      <c r="G47"/>
+      <c r="H47"/>
+      <c r="I47"/>
+    </row>
+    <row r="48" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C48" s="295" t="s">
         <v>276</v>
       </c>
-      <c r="E12" s="207" t="s">
-        <v>277</v>
-      </c>
-      <c r="F12" s="205" t="s">
-        <v>275</v>
-      </c>
-      <c r="G12" s="206" t="s">
-        <v>279</v>
-      </c>
-      <c r="H12" s="206" t="s">
-        <v>278</v>
-      </c>
-      <c r="I12" s="206" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B13" s="152"/>
-      <c r="C13" s="202">
+      <c r="D48" s="296"/>
+      <c r="E48" s="296"/>
+      <c r="F48" s="296"/>
+      <c r="G48" s="297"/>
+      <c r="H48"/>
+      <c r="I48" s="150"/>
+    </row>
+    <row r="49" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C49" s="197" t="s">
+        <v>14</v>
+      </c>
+      <c r="D49" s="202" t="s">
+        <v>284</v>
+      </c>
+      <c r="E49" s="227" t="s">
+        <v>286</v>
+      </c>
+      <c r="F49" s="227" t="s">
+        <v>287</v>
+      </c>
+      <c r="G49" s="203" t="s">
+        <v>288</v>
+      </c>
+      <c r="H49"/>
+      <c r="I49" s="150"/>
+    </row>
+    <row r="50" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C50" s="208">
         <v>1</v>
       </c>
-      <c r="D13" s="201"/>
-      <c r="E13" s="201">
-        <f>B13*SIN(RADIANS(F13))</f>
-        <v>0</v>
-      </c>
-      <c r="F13" s="201"/>
-      <c r="G13" s="201" t="e">
-        <f>DEGREES(ASIN(D13/B13))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H13" s="201">
-        <f>TAN(RADIANS(F13))</f>
-        <v>0</v>
-      </c>
-      <c r="I13" s="201" t="e">
-        <f>TAN(RADIANS(G13))</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B14" s="152"/>
-      <c r="C14" s="202">
+      <c r="D50" s="233">
+        <f>B2*10*(D32/100)</f>
+        <v>1.0028E-2</v>
+      </c>
+      <c r="E50" s="231">
+        <f>B2*H32 ^2/2</f>
+        <v>2.8730103806228363E-3</v>
+      </c>
+      <c r="F50" s="232">
+        <f>E50-D50</f>
+        <v>-7.1549896193771646E-3</v>
+      </c>
+      <c r="G50" s="212">
+        <f>-F50/(B2*10*COS(RADIANS(E32))*0.38)</f>
+        <v>0.49973880856875125</v>
+      </c>
+      <c r="H50"/>
+      <c r="I50" s="150"/>
+    </row>
+    <row r="51" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C51" s="208">
         <v>2</v>
       </c>
-      <c r="D14" s="201"/>
-      <c r="E14" s="201">
-        <f>B13*SIN(RADIANS(F14))</f>
-        <v>0</v>
-      </c>
-      <c r="F14" s="201"/>
-      <c r="G14" s="201" t="e">
-        <f>DEGREES(ASIN(D14/B13))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H14" s="201">
-        <f t="shared" ref="H14:H18" si="3">TAN(RADIANS(F14))</f>
-        <v>0</v>
-      </c>
-      <c r="I14" s="201" t="e">
-        <f t="shared" ref="I14:I18" si="4">TAN(RADIANS(G14))</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B15" s="152"/>
-      <c r="C15" s="202">
+      <c r="D51" s="233">
+        <f>B2*10*(D33/100)</f>
+        <v>1.0626E-2</v>
+      </c>
+      <c r="E51" s="232">
+        <f>B2*H33 ^2/2</f>
+        <v>4.2362244897959176E-3</v>
+      </c>
+      <c r="F51" s="232">
+        <f t="shared" ref="F51:F54" si="11">E51-D51</f>
+        <v>-6.3897755102040824E-3</v>
+      </c>
+      <c r="G51" s="212">
+        <f>-F51/(B2*10*COS(RADIANS(E33))*0.38)</f>
+        <v>0.46037743562051003</v>
+      </c>
+      <c r="H51"/>
+      <c r="I51" s="150"/>
+    </row>
+    <row r="52" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C52" s="208">
         <v>3</v>
       </c>
-      <c r="D15" s="201"/>
-      <c r="E15" s="201">
-        <f>B13*SIN(RADIANS(F15))</f>
-        <v>0</v>
-      </c>
-      <c r="F15" s="201"/>
-      <c r="G15" s="201" t="e">
-        <f>DEGREES(ASIN(D15/B13))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H15" s="201">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I15" s="201" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B16" s="152"/>
-      <c r="C16" s="202">
+      <c r="D52" s="233">
+        <f>B2*10*(D34/100)</f>
+        <v>1.2006000000000001E-2</v>
+      </c>
+      <c r="E52" s="232">
+        <f>B2*H34 ^2/2</f>
+        <v>6.2782608695652166E-3</v>
+      </c>
+      <c r="F52" s="232">
+        <f t="shared" si="11"/>
+        <v>-5.7277391304347844E-3</v>
+      </c>
+      <c r="G52" s="212">
+        <f>-F52/(B2*10*COS(RADIANS(E34))*0.38)</f>
+        <v>0.45084047916897352</v>
+      </c>
+      <c r="H52"/>
+      <c r="I52" s="150"/>
+    </row>
+    <row r="53" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C53" s="208">
         <v>4</v>
       </c>
-      <c r="D16" s="201"/>
-      <c r="E16" s="201">
-        <f>B13*SIN(RADIANS(F16))</f>
-        <v>0</v>
-      </c>
-      <c r="F16" s="201"/>
-      <c r="G16" s="201" t="e">
-        <f>DEGREES(ASIN(D16/B13))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H16" s="201">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I16" s="201" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B17" s="152"/>
-      <c r="C17" s="202">
+      <c r="D53" s="233">
+        <f>B2*10*(D35/100)</f>
+        <v>1.2971999999999999E-2</v>
+      </c>
+      <c r="E53" s="232">
+        <f>B2*H35 ^2/2</f>
+        <v>7.9029149315883399E-3</v>
+      </c>
+      <c r="F53" s="232">
+        <f t="shared" si="11"/>
+        <v>-5.0690850684116592E-3</v>
+      </c>
+      <c r="G53" s="212">
+        <f>-F53/(B2*10*COS(RADIANS(E35))*0.38)</f>
+        <v>0.43264303376699986</v>
+      </c>
+      <c r="H53"/>
+      <c r="I53" s="150"/>
+    </row>
+    <row r="54" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C54" s="208">
         <v>5</v>
       </c>
-      <c r="D17" s="201"/>
-      <c r="E17" s="201">
-        <f>B13*SIN(RADIANS(F17))</f>
-        <v>0</v>
-      </c>
-      <c r="F17" s="201"/>
-      <c r="G17" s="201" t="e">
-        <f>DEGREES(ASIN(D17/B13))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H17" s="201">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I17" s="201" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C18" s="202" t="s">
-        <v>273</v>
-      </c>
-      <c r="D18" s="199"/>
-      <c r="E18" s="199">
-        <f>AVERAGE(E13:E17)</f>
-        <v>0</v>
-      </c>
-      <c r="F18" s="199"/>
-      <c r="G18" s="199" t="e">
-        <f t="shared" ref="G18" si="5">AVERAGE(G13:G17)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H18" s="199">
-        <f t="shared" ref="H18" si="6">AVERAGE(H13:H17)</f>
-        <v>0</v>
-      </c>
-      <c r="I18" s="199" t="e">
-        <f t="shared" ref="I18" si="7">AVERAGE(I13:I17)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C19" s="203" t="s">
-        <v>29</v>
-      </c>
-      <c r="D19" s="274" t="str">
-        <f>"Altura: " &amp; ROUND(AVERAGE(D18:E18),3)</f>
-        <v>Altura: 0</v>
-      </c>
-      <c r="E19" s="250"/>
-      <c r="F19" s="274" t="e">
-        <f>"Ângulo: " &amp; ROUND(AVERAGE(F18:G18),3)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G19" s="250"/>
-      <c r="H19" s="274" t="e">
-        <f>"µest: " &amp; ROUND(AVERAGE(H18:I18),3)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I19" s="250"/>
+      <c r="D54" s="233">
+        <f>B2*10*(D36/100)</f>
+        <v>1.3569999999999999E-2</v>
+      </c>
+      <c r="E54" s="232">
+        <f>B2*H36 ^2/2</f>
+        <v>1.0250617283950618E-2</v>
+      </c>
+      <c r="F54" s="232">
+        <f t="shared" si="11"/>
+        <v>-3.3193827160493804E-3</v>
+      </c>
+      <c r="G54" s="212">
+        <f>-F54/(B2*10*COS(RADIANS(E36))*0.38)</f>
+        <v>0.3012576939417857</v>
+      </c>
+      <c r="H54"/>
+      <c r="I54" s="150"/>
+    </row>
+    <row r="55" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C55" s="197" t="s">
+        <v>272</v>
+      </c>
+      <c r="D55" s="197" t="str">
+        <f>"En. Mec. In.: " &amp; ROUND(AVERAGE(D50:D54),2)</f>
+        <v>En. Mec. In.: 0.01</v>
+      </c>
+      <c r="E55" s="197" t="str">
+        <f>"En. Mec. Fi.: " &amp; ROUND(AVERAGE(E50:E54),2)</f>
+        <v>En. Mec. Fi.: 0.01</v>
+      </c>
+      <c r="F55" s="197" t="str">
+        <f>"ΔEn Mec: " &amp; ROUND(AVERAGE(F50:F54),2)</f>
+        <v>ΔEn Mec: -0.01</v>
+      </c>
+      <c r="G55" s="235" t="str">
+        <f>"μcin: " &amp; ROUND(AVERAGE(G50:G54),4)</f>
+        <v>μcin: 0.429</v>
+      </c>
+      <c r="H55"/>
+      <c r="I55" s="150"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="D11:I11"/>
+  <mergeCells count="14">
+    <mergeCell ref="C1:I1"/>
+    <mergeCell ref="C11:I11"/>
     <mergeCell ref="D19:E19"/>
     <mergeCell ref="F19:G19"/>
     <mergeCell ref="H19:I19"/>
-    <mergeCell ref="J1:L1"/>
-    <mergeCell ref="D1:I1"/>
     <mergeCell ref="D10:I10"/>
     <mergeCell ref="D9:E9"/>
     <mergeCell ref="F9:G9"/>
     <mergeCell ref="H9:I9"/>
+    <mergeCell ref="C39:G39"/>
+    <mergeCell ref="C48:G48"/>
+    <mergeCell ref="C30:H30"/>
+    <mergeCell ref="D29:I29"/>
+    <mergeCell ref="C21:H21"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
